--- a/Power BI Dashboard Data.xlsx
+++ b/Power BI Dashboard Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://peoplestronghrservices-my.sharepoint.com/personal/rishab_jha_taggd_in/Documents/Desktop/Adani Cements/Jul'25/Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1178" documentId="8_{F1BBBB7F-47AE-4CE6-A18B-5A5C84E2A5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10123C43-9711-4FF0-A3A6-69F990E7A00C}"/>
+  <xr:revisionPtr revIDLastSave="1242" documentId="8_{F1BBBB7F-47AE-4CE6-A18B-5A5C84E2A5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5CEFF3A-519B-4E90-AE16-A60209A212D0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{209BDCAE-15BA-4B15-8BF8-E4A28D2CEB45}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Audit Count '!$A$1:$O$134</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Recruiter Wise Data '!$A$1:$J$568</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Recruiter Wise Data '!$A$1:$J$598</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4795" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5052" uniqueCount="88">
   <si>
     <t>Client</t>
   </si>
@@ -400,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,9 +433,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7272780-F6E8-4A36-B6CD-CC205CD51139}">
-  <dimension ref="A1:P151"/>
+  <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7532,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="M135" s="10">
-        <f t="shared" ref="M135:M141" si="43">J135/(I135-L135)</f>
+        <f t="shared" ref="M135:M158" si="43">J135/(I135-L135)</f>
         <v>1</v>
       </c>
       <c r="N135" s="10">
@@ -7882,15 +7879,15 @@
         <v>5</v>
       </c>
       <c r="M142" s="10">
-        <f t="shared" ref="M142:M144" si="46">J142/(I142-L142)</f>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="N142" s="10">
-        <f t="shared" ref="N142:N144" si="47">K142/(I142-L142)</f>
+        <f t="shared" ref="N142:N144" si="46">K142/(I142-L142)</f>
         <v>0</v>
       </c>
       <c r="O142" s="10">
-        <f t="shared" ref="O142:O144" si="48">I142/H142</f>
+        <f t="shared" ref="O142:O144" si="47">I142/H142</f>
         <v>0.5</v>
       </c>
     </row>
@@ -7932,15 +7929,15 @@
         <v>3</v>
       </c>
       <c r="M143" s="10">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="N143" s="10">
         <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="N143" s="10">
+        <v>0</v>
+      </c>
+      <c r="O143" s="10">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="O143" s="10">
-        <f t="shared" si="48"/>
         <v>0.5</v>
       </c>
     </row>
@@ -7982,15 +7979,15 @@
         <v>3</v>
       </c>
       <c r="M144" s="10">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="N144" s="10">
         <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="N144" s="10">
+        <v>0</v>
+      </c>
+      <c r="O144" s="10">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="O144" s="10">
-        <f t="shared" si="48"/>
         <v>0.5</v>
       </c>
     </row>
@@ -8032,14 +8029,15 @@
         <v>0</v>
       </c>
       <c r="M145" s="10">
+        <f t="shared" si="43"/>
         <v>0.5</v>
       </c>
       <c r="N145" s="10">
-        <f t="shared" ref="N145:N151" si="49">K145/(I145-L145)</f>
+        <f t="shared" ref="N145:N151" si="48">K145/(I145-L145)</f>
         <v>0.5</v>
       </c>
       <c r="O145" s="10">
-        <f t="shared" ref="O145:O151" si="50">I145/H145</f>
+        <f t="shared" ref="O145:O151" si="49">I145/H145</f>
         <v>0.5</v>
       </c>
     </row>
@@ -8081,14 +8079,15 @@
         <v>2</v>
       </c>
       <c r="M146" s="10">
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="N146" s="10">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O146" s="10">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="O146" s="10">
-        <f t="shared" si="50"/>
         <v>0.5</v>
       </c>
     </row>
@@ -8130,14 +8129,15 @@
         <v>2</v>
       </c>
       <c r="M147" s="10">
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="N147" s="10">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O147" s="10">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="O147" s="10">
-        <f t="shared" si="50"/>
         <v>0.5</v>
       </c>
     </row>
@@ -8179,14 +8179,15 @@
         <v>2</v>
       </c>
       <c r="M148" s="10">
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="N148" s="10">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O148" s="10">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="O148" s="10">
-        <f t="shared" si="50"/>
         <v>0.5</v>
       </c>
     </row>
@@ -8228,14 +8229,15 @@
         <v>0</v>
       </c>
       <c r="M149" s="10">
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="N149" s="10">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O149" s="10">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="O149" s="10">
-        <f t="shared" si="50"/>
         <v>0.5</v>
       </c>
     </row>
@@ -8277,14 +8279,15 @@
         <v>0</v>
       </c>
       <c r="M150" s="10">
+        <f t="shared" si="43"/>
         <v>0.75</v>
       </c>
       <c r="N150" s="10">
+        <f t="shared" si="48"/>
+        <v>0.25</v>
+      </c>
+      <c r="O150" s="10">
         <f t="shared" si="49"/>
-        <v>0.25</v>
-      </c>
-      <c r="O150" s="10">
-        <f t="shared" si="50"/>
         <v>0.5</v>
       </c>
     </row>
@@ -8326,15 +8329,366 @@
         <v>0</v>
       </c>
       <c r="M151" s="10">
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="N151" s="10">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O151" s="10">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="O151" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D152" s="9">
+        <v>11</v>
+      </c>
+      <c r="E152" s="9">
+        <v>3</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H152" s="5">
+        <v>10</v>
+      </c>
+      <c r="I152" s="5">
+        <v>5</v>
+      </c>
+      <c r="J152" s="5">
+        <v>2</v>
+      </c>
+      <c r="K152" s="5">
+        <v>2</v>
+      </c>
+      <c r="L152" s="5">
+        <v>1</v>
+      </c>
+      <c r="M152" s="10">
+        <f t="shared" si="43"/>
+        <v>0.5</v>
+      </c>
+      <c r="N152" s="10">
+        <f t="shared" ref="N152:N158" si="50">K152/(I152-L152)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O152" s="10">
+        <f t="shared" ref="O152:O158" si="51">I152/H152</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D153" s="9">
+        <v>11</v>
+      </c>
+      <c r="E153" s="9">
+        <v>3</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H153" s="5">
+        <v>6</v>
+      </c>
+      <c r="I153" s="5">
+        <v>4</v>
+      </c>
+      <c r="J153" s="5">
+        <v>1</v>
+      </c>
+      <c r="K153" s="5">
+        <v>0</v>
+      </c>
+      <c r="L153" s="5">
+        <v>3</v>
+      </c>
+      <c r="M153" s="10">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="N153" s="10">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O153" s="10">
+        <f t="shared" si="51"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D154" s="9">
+        <v>11</v>
+      </c>
+      <c r="E154" s="9">
+        <v>3</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H154" s="5">
+        <v>6</v>
+      </c>
+      <c r="I154" s="5">
+        <v>4</v>
+      </c>
+      <c r="J154" s="5">
+        <v>1</v>
+      </c>
+      <c r="K154" s="5">
+        <v>0</v>
+      </c>
+      <c r="L154" s="5">
+        <v>3</v>
+      </c>
+      <c r="M154" s="10">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="N154" s="10">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O154" s="10">
+        <f t="shared" si="51"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D155" s="9">
+        <v>11</v>
+      </c>
+      <c r="E155" s="9">
+        <v>3</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H155" s="5">
+        <v>6</v>
+      </c>
+      <c r="I155" s="5">
+        <v>4</v>
+      </c>
+      <c r="J155" s="5">
+        <v>1</v>
+      </c>
+      <c r="K155" s="5">
+        <v>0</v>
+      </c>
+      <c r="L155" s="5">
+        <v>3</v>
+      </c>
+      <c r="M155" s="10">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="N155" s="10">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O155" s="10">
+        <f t="shared" si="51"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D156" s="9">
+        <v>11</v>
+      </c>
+      <c r="E156" s="9">
+        <v>3</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H156" s="5">
+        <v>6</v>
+      </c>
+      <c r="I156" s="5">
+        <v>4</v>
+      </c>
+      <c r="J156" s="5">
+        <v>3</v>
+      </c>
+      <c r="K156" s="5">
+        <v>0</v>
+      </c>
+      <c r="L156" s="5">
+        <v>1</v>
+      </c>
+      <c r="M156" s="10">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="N156" s="10">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O156" s="10">
+        <f t="shared" si="51"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D157" s="9">
+        <v>11</v>
+      </c>
+      <c r="E157" s="9">
+        <v>3</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H157" s="5">
+        <v>6</v>
+      </c>
+      <c r="I157" s="5">
+        <v>4</v>
+      </c>
+      <c r="J157" s="5">
+        <v>3</v>
+      </c>
+      <c r="K157" s="5">
+        <v>0</v>
+      </c>
+      <c r="L157" s="5">
+        <v>1</v>
+      </c>
+      <c r="M157" s="10">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="N157" s="10">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O157" s="10">
+        <f t="shared" si="51"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D158" s="9">
+        <v>11</v>
+      </c>
+      <c r="E158" s="9">
+        <v>3</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H158" s="5">
+        <v>6</v>
+      </c>
+      <c r="I158" s="5">
+        <v>5</v>
+      </c>
+      <c r="J158" s="5">
+        <v>5</v>
+      </c>
+      <c r="K158" s="5">
+        <v>0</v>
+      </c>
+      <c r="L158" s="5">
+        <v>0</v>
+      </c>
+      <c r="M158" s="10">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="N158" s="10">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O158" s="10">
+        <f t="shared" si="51"/>
+        <v>0.83333333333333337</v>
       </c>
     </row>
   </sheetData>
@@ -8346,10 +8700,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C53DFA-81F7-47CF-9345-E8C8EF0158AC}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L568"/>
+  <dimension ref="A1:L598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D549" workbookViewId="0">
-      <selection sqref="A1:J568"/>
+    <sheetView tabSelected="1" topLeftCell="A579" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:J598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25647,7 +26001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="9" t="s">
         <v>37</v>
       </c>
@@ -25679,7 +26033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="9" t="s">
         <v>37</v>
       </c>
@@ -25711,7 +26065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="9" t="s">
         <v>37</v>
       </c>
@@ -25743,7 +26097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="9" t="s">
         <v>37</v>
       </c>
@@ -25775,7 +26129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="9" t="s">
         <v>37</v>
       </c>
@@ -25807,7 +26161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="9" t="s">
         <v>37</v>
       </c>
@@ -25839,7 +26193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="9" t="s">
         <v>37</v>
       </c>
@@ -25871,7 +26225,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="9" t="s">
         <v>37</v>
       </c>
@@ -25903,7 +26257,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="9" t="s">
         <v>37</v>
       </c>
@@ -25935,7 +26289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="9" t="s">
         <v>37</v>
       </c>
@@ -25967,7 +26321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="9" t="s">
         <v>37</v>
       </c>
@@ -25999,7 +26353,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="9" t="s">
         <v>37</v>
       </c>
@@ -26031,7 +26385,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="9" t="s">
         <v>37</v>
       </c>
@@ -26063,7 +26417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="9" t="s">
         <v>37</v>
       </c>
@@ -26095,7 +26449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="9" t="s">
         <v>37</v>
       </c>
@@ -26127,7 +26481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="9" t="s">
         <v>37</v>
       </c>
@@ -26159,7 +26513,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="9" t="s">
         <v>37</v>
       </c>
@@ -26191,7 +26545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="9" t="s">
         <v>37</v>
       </c>
@@ -26223,7 +26577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="9" t="s">
         <v>37</v>
       </c>
@@ -26242,7 +26596,7 @@
       <c r="F559" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G559" s="12" t="s">
+      <c r="G559" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H559" s="9" t="s">
@@ -26255,7 +26609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="9" t="s">
         <v>37</v>
       </c>
@@ -26274,7 +26628,7 @@
       <c r="F560" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G560" s="12" t="s">
+      <c r="G560" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H560" s="9" t="s">
@@ -26287,7 +26641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="9" t="s">
         <v>37</v>
       </c>
@@ -26306,7 +26660,7 @@
       <c r="F561" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G561" s="12" t="s">
+      <c r="G561" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H561" s="9" t="s">
@@ -26319,7 +26673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="9" t="s">
         <v>37</v>
       </c>
@@ -26338,7 +26692,7 @@
       <c r="F562" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G562" s="12" t="s">
+      <c r="G562" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H562" s="9" t="s">
@@ -26351,7 +26705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="9" t="s">
         <v>37</v>
       </c>
@@ -26370,7 +26724,7 @@
       <c r="F563" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G563" s="12" t="s">
+      <c r="G563" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H563" s="9" t="s">
@@ -26383,7 +26737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="9" t="s">
         <v>37</v>
       </c>
@@ -26402,7 +26756,7 @@
       <c r="F564" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G564" s="12" t="s">
+      <c r="G564" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H564" s="9" t="s">
@@ -26415,7 +26769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="9" t="s">
         <v>37</v>
       </c>
@@ -26434,7 +26788,7 @@
       <c r="F565" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G565" s="12" t="s">
+      <c r="G565" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H565" s="9" t="s">
@@ -26447,7 +26801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="9" t="s">
         <v>37</v>
       </c>
@@ -26466,7 +26820,7 @@
       <c r="F566" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G566" s="12" t="s">
+      <c r="G566" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H566" s="9" t="s">
@@ -26479,7 +26833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="9" t="s">
         <v>37</v>
       </c>
@@ -26498,7 +26852,7 @@
       <c r="F567" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G567" s="12" t="s">
+      <c r="G567" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H567" s="9" t="s">
@@ -26511,7 +26865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="9" t="s">
         <v>37</v>
       </c>
@@ -26530,7 +26884,7 @@
       <c r="F568" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G568" s="12" t="s">
+      <c r="G568" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H568" s="9" t="s">
@@ -26543,16 +26897,976 @@
         <v>1</v>
       </c>
     </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A569" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B569" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C569" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D569" s="9">
+        <v>11</v>
+      </c>
+      <c r="E569" s="9">
+        <v>3</v>
+      </c>
+      <c r="F569" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G569" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H569" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I569" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J569" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A570" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B570" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C570" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D570" s="9">
+        <v>11</v>
+      </c>
+      <c r="E570" s="9">
+        <v>3</v>
+      </c>
+      <c r="F570" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G570" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H570" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I570" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J570" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A571" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B571" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C571" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D571" s="9">
+        <v>11</v>
+      </c>
+      <c r="E571" s="9">
+        <v>3</v>
+      </c>
+      <c r="F571" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G571" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H571" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I571" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J571" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A572" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B572" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C572" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D572" s="9">
+        <v>11</v>
+      </c>
+      <c r="E572" s="9">
+        <v>3</v>
+      </c>
+      <c r="F572" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G572" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H572" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I572" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J572" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A573" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B573" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C573" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D573" s="9">
+        <v>11</v>
+      </c>
+      <c r="E573" s="9">
+        <v>3</v>
+      </c>
+      <c r="F573" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G573" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H573" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I573" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J573" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A574" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B574" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C574" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D574" s="9">
+        <v>11</v>
+      </c>
+      <c r="E574" s="9">
+        <v>3</v>
+      </c>
+      <c r="F574" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G574" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H574" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I574" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J574" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A575" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B575" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C575" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D575" s="9">
+        <v>11</v>
+      </c>
+      <c r="E575" s="9">
+        <v>3</v>
+      </c>
+      <c r="F575" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G575" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H575" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I575" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J575" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A576" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B576" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C576" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D576" s="9">
+        <v>11</v>
+      </c>
+      <c r="E576" s="9">
+        <v>3</v>
+      </c>
+      <c r="F576" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G576" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H576" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I576" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J576" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A577" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B577" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C577" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D577" s="9">
+        <v>11</v>
+      </c>
+      <c r="E577" s="9">
+        <v>3</v>
+      </c>
+      <c r="F577" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G577" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H577" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I577" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J577" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A578" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B578" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C578" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D578" s="9">
+        <v>11</v>
+      </c>
+      <c r="E578" s="9">
+        <v>3</v>
+      </c>
+      <c r="F578" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G578" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H578" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I578" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J578" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A579" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B579" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C579" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D579" s="9">
+        <v>11</v>
+      </c>
+      <c r="E579" s="9">
+        <v>3</v>
+      </c>
+      <c r="F579" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G579" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H579" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I579" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J579" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A580" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B580" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C580" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D580" s="9">
+        <v>11</v>
+      </c>
+      <c r="E580" s="9">
+        <v>3</v>
+      </c>
+      <c r="F580" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G580" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H580" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I580" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J580" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A581" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B581" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C581" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D581" s="9">
+        <v>11</v>
+      </c>
+      <c r="E581" s="9">
+        <v>3</v>
+      </c>
+      <c r="F581" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G581" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H581" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I581" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J581" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A582" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B582" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C582" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D582" s="9">
+        <v>11</v>
+      </c>
+      <c r="E582" s="9">
+        <v>3</v>
+      </c>
+      <c r="F582" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G582" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H582" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I582" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J582" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A583" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B583" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C583" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D583" s="9">
+        <v>11</v>
+      </c>
+      <c r="E583" s="9">
+        <v>3</v>
+      </c>
+      <c r="F583" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G583" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H583" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I583" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J583" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A584" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B584" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C584" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D584" s="9">
+        <v>11</v>
+      </c>
+      <c r="E584" s="9">
+        <v>3</v>
+      </c>
+      <c r="F584" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G584" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H584" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I584" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J584" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A585" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B585" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C585" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D585" s="9">
+        <v>11</v>
+      </c>
+      <c r="E585" s="9">
+        <v>3</v>
+      </c>
+      <c r="F585" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G585" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H585" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I585" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J585" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A586" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B586" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C586" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D586" s="9">
+        <v>11</v>
+      </c>
+      <c r="E586" s="9">
+        <v>3</v>
+      </c>
+      <c r="F586" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G586" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H586" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I586" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J586" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A587" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B587" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C587" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D587" s="9">
+        <v>11</v>
+      </c>
+      <c r="E587" s="9">
+        <v>3</v>
+      </c>
+      <c r="F587" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G587" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H587" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I587" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J587" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A588" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B588" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C588" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D588" s="9">
+        <v>11</v>
+      </c>
+      <c r="E588" s="9">
+        <v>3</v>
+      </c>
+      <c r="F588" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G588" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H588" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I588" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J588" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A589" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B589" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C589" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D589" s="9">
+        <v>11</v>
+      </c>
+      <c r="E589" s="9">
+        <v>3</v>
+      </c>
+      <c r="F589" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G589" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H589" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I589" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J589" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A590" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B590" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C590" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D590" s="9">
+        <v>11</v>
+      </c>
+      <c r="E590" s="9">
+        <v>3</v>
+      </c>
+      <c r="F590" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G590" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H590" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I590" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J590" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A591" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B591" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C591" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D591" s="9">
+        <v>11</v>
+      </c>
+      <c r="E591" s="9">
+        <v>3</v>
+      </c>
+      <c r="F591" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G591" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H591" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I591" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J591" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A592" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B592" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C592" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D592" s="9">
+        <v>11</v>
+      </c>
+      <c r="E592" s="9">
+        <v>3</v>
+      </c>
+      <c r="F592" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G592" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H592" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I592" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J592" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A593" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B593" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C593" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D593" s="9">
+        <v>11</v>
+      </c>
+      <c r="E593" s="9">
+        <v>3</v>
+      </c>
+      <c r="F593" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G593" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H593" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I593" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J593" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A594" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B594" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C594" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D594" s="9">
+        <v>11</v>
+      </c>
+      <c r="E594" s="9">
+        <v>3</v>
+      </c>
+      <c r="F594" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G594" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H594" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I594" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J594" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A595" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B595" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C595" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D595" s="9">
+        <v>11</v>
+      </c>
+      <c r="E595" s="9">
+        <v>3</v>
+      </c>
+      <c r="F595" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G595" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H595" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I595" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J595" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A596" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B596" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C596" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D596" s="9">
+        <v>11</v>
+      </c>
+      <c r="E596" s="9">
+        <v>3</v>
+      </c>
+      <c r="F596" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G596" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H596" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I596" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J596" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A597" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B597" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C597" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D597" s="9">
+        <v>11</v>
+      </c>
+      <c r="E597" s="9">
+        <v>3</v>
+      </c>
+      <c r="F597" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G597" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H597" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I597" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J597" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A598" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B598" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C598" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D598" s="9">
+        <v>11</v>
+      </c>
+      <c r="E598" s="9">
+        <v>3</v>
+      </c>
+      <c r="F598" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G598" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H598" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I598" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J598" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J568" xr:uid="{49C53DFA-81F7-47CF-9345-E8C8EF0158AC}">
-    <filterColumn colId="3">
+  <autoFilter ref="A1:J598" xr:uid="{49C53DFA-81F7-47CF-9345-E8C8EF0158AC}">
+    <filterColumn colId="2">
       <filters>
-        <filter val="11"/>
+        <filter val="November"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="2"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Power BI Dashboard Data.xlsx
+++ b/Power BI Dashboard Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://peoplestronghrservices-my.sharepoint.com/personal/rishab_jha_taggd_in/Documents/Desktop/Adani Cements/Jul'25/Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1764" documentId="8_{F1BBBB7F-47AE-4CE6-A18B-5A5C84E2A5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2267365-996E-4812-847E-40D9A807234D}"/>
+  <xr:revisionPtr revIDLastSave="1961" documentId="8_{F1BBBB7F-47AE-4CE6-A18B-5A5C84E2A5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5600A9BD-B39C-47E3-8919-86F9B1DD5144}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{209BDCAE-15BA-4B15-8BF8-E4A28D2CEB45}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Recruiter Wise Data " sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Audit Count '!$A$1:$O$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Recruiter Wise Data '!$A$1:$J$732</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Audit Count '!$A$1:$O$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Recruiter Wise Data '!$A$1:$J$862</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5227" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6083" uniqueCount="92">
   <si>
     <t>Client</t>
   </si>
@@ -300,6 +300,24 @@
   <si>
     <t>Job Offer Create (IJP)</t>
   </si>
+  <si>
+    <t>Vivek Bhadrecha</t>
+  </si>
+  <si>
+    <t>Dhwani Ajagia</t>
+  </si>
+  <si>
+    <t>Sanjana Roy</t>
+  </si>
+  <si>
+    <t>Durgesh Baraiya</t>
+  </si>
+  <si>
+    <t>Ankit Dave</t>
+  </si>
+  <si>
+    <t>Meemansa Bhawsar</t>
+  </si>
 </sst>
 </file>
 
@@ -366,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -389,12 +407,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,17 +466,38 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -771,11 +834,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7272780-F6E8-4A36-B6CD-CC205CD51139}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:P188"/>
+  <dimension ref="A1:P203"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J166" sqref="J166:L188"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
@@ -895,7 +959,7 @@
       </c>
       <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
@@ -945,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -995,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -1045,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
@@ -1095,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
@@ -1145,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
@@ -1195,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
@@ -1245,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
@@ -1295,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -1345,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -1395,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
@@ -1445,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1495,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
@@ -1545,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>29</v>
       </c>
@@ -1595,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -1645,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>29</v>
       </c>
@@ -1695,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
@@ -1745,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
@@ -1795,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
@@ -1845,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1895,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
@@ -1945,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
@@ -1995,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>29</v>
       </c>
@@ -2045,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>29</v>
       </c>
@@ -2095,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>29</v>
       </c>
@@ -2145,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>29</v>
       </c>
@@ -2195,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>29</v>
       </c>
@@ -2245,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>29</v>
       </c>
@@ -2295,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
@@ -2345,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>29</v>
       </c>
@@ -2395,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>29</v>
       </c>
@@ -2445,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>29</v>
       </c>
@@ -2495,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>29</v>
       </c>
@@ -2545,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>29</v>
       </c>
@@ -2595,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>29</v>
       </c>
@@ -2645,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>29</v>
       </c>
@@ -2695,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>29</v>
       </c>
@@ -2745,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>29</v>
       </c>
@@ -2795,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>29</v>
       </c>
@@ -2845,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>29</v>
       </c>
@@ -2895,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>29</v>
       </c>
@@ -2945,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>29</v>
       </c>
@@ -2995,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>29</v>
       </c>
@@ -3045,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>29</v>
       </c>
@@ -3095,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>29</v>
       </c>
@@ -3145,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>29</v>
       </c>
@@ -3195,7 +3259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>29</v>
       </c>
@@ -3245,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>29</v>
       </c>
@@ -3295,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>29</v>
       </c>
@@ -3345,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>29</v>
       </c>
@@ -3395,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>29</v>
       </c>
@@ -3445,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>29</v>
       </c>
@@ -3495,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>29</v>
       </c>
@@ -3545,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>29</v>
       </c>
@@ -3595,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>29</v>
       </c>
@@ -3645,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>29</v>
       </c>
@@ -3695,7 +3759,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>29</v>
       </c>
@@ -3745,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>29</v>
       </c>
@@ -3795,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>29</v>
       </c>
@@ -3845,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>29</v>
       </c>
@@ -3895,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>29</v>
       </c>
@@ -3945,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>29</v>
       </c>
@@ -3995,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>29</v>
       </c>
@@ -4045,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>29</v>
       </c>
@@ -4095,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>29</v>
       </c>
@@ -4145,7 +4209,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>29</v>
       </c>
@@ -4195,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>29</v>
       </c>
@@ -4245,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>29</v>
       </c>
@@ -4295,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>29</v>
       </c>
@@ -4345,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>29</v>
       </c>
@@ -4395,7 +4459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>29</v>
       </c>
@@ -4445,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>29</v>
       </c>
@@ -4495,7 +4559,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>29</v>
       </c>
@@ -4545,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>29</v>
       </c>
@@ -4595,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>29</v>
       </c>
@@ -4645,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>29</v>
       </c>
@@ -4695,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>29</v>
       </c>
@@ -4745,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>29</v>
       </c>
@@ -4795,7 +4859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>29</v>
       </c>
@@ -4845,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>29</v>
       </c>
@@ -4895,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>29</v>
       </c>
@@ -4945,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>29</v>
       </c>
@@ -4995,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>29</v>
       </c>
@@ -5045,7 +5109,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>29</v>
       </c>
@@ -5095,7 +5159,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>29</v>
       </c>
@@ -5145,7 +5209,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>29</v>
       </c>
@@ -5195,7 +5259,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>29</v>
       </c>
@@ -5245,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>29</v>
       </c>
@@ -5295,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>29</v>
       </c>
@@ -5345,7 +5409,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>29</v>
       </c>
@@ -5395,7 +5459,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>29</v>
       </c>
@@ -5445,7 +5509,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>29</v>
       </c>
@@ -5495,7 +5559,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>29</v>
       </c>
@@ -5545,7 +5609,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>29</v>
       </c>
@@ -5595,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>29</v>
       </c>
@@ -5645,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>29</v>
       </c>
@@ -5695,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>29</v>
       </c>
@@ -5745,7 +5809,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>29</v>
       </c>
@@ -5795,7 +5859,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>29</v>
       </c>
@@ -5845,7 +5909,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>29</v>
       </c>
@@ -5895,7 +5959,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>29</v>
       </c>
@@ -5945,7 +6009,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>29</v>
       </c>
@@ -5995,7 +6059,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>29</v>
       </c>
@@ -6045,7 +6109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>29</v>
       </c>
@@ -6095,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>29</v>
       </c>
@@ -6145,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>29</v>
       </c>
@@ -6195,7 +6259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>29</v>
       </c>
@@ -6245,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>29</v>
       </c>
@@ -6295,7 +6359,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>29</v>
       </c>
@@ -6345,7 +6409,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>29</v>
       </c>
@@ -6395,7 +6459,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>29</v>
       </c>
@@ -6445,7 +6509,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>29</v>
       </c>
@@ -6495,7 +6559,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>29</v>
       </c>
@@ -6545,7 +6609,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>29</v>
       </c>
@@ -6595,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>29</v>
       </c>
@@ -6645,7 +6709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>29</v>
       </c>
@@ -6695,7 +6759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>29</v>
       </c>
@@ -6745,7 +6809,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>29</v>
       </c>
@@ -6795,7 +6859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>29</v>
       </c>
@@ -6845,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>29</v>
       </c>
@@ -6895,7 +6959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>29</v>
       </c>
@@ -6945,7 +7009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>29</v>
       </c>
@@ -6995,7 +7059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>29</v>
       </c>
@@ -7045,7 +7109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>29</v>
       </c>
@@ -7095,7 +7159,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>29</v>
       </c>
@@ -7145,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>29</v>
       </c>
@@ -7195,7 +7259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>29</v>
       </c>
@@ -7245,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>29</v>
       </c>
@@ -7295,7 +7359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>29</v>
       </c>
@@ -7345,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>29</v>
       </c>
@@ -7395,7 +7459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>29</v>
       </c>
@@ -7445,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>29</v>
       </c>
@@ -7495,7 +7559,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>29</v>
       </c>
@@ -7545,7 +7609,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>29</v>
       </c>
@@ -7595,7 +7659,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>29</v>
       </c>
@@ -7645,7 +7709,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>29</v>
       </c>
@@ -7695,7 +7759,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>29</v>
       </c>
@@ -7745,7 +7809,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>29</v>
       </c>
@@ -7795,7 +7859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>29</v>
       </c>
@@ -7845,7 +7909,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>29</v>
       </c>
@@ -7895,7 +7959,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>29</v>
       </c>
@@ -7945,7 +8009,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>29</v>
       </c>
@@ -7995,7 +8059,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>29</v>
       </c>
@@ -8045,7 +8109,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>29</v>
       </c>
@@ -8095,7 +8159,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>29</v>
       </c>
@@ -8145,7 +8209,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>29</v>
       </c>
@@ -8195,7 +8259,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>29</v>
       </c>
@@ -8245,7 +8309,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>29</v>
       </c>
@@ -8295,7 +8359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>29</v>
       </c>
@@ -8345,7 +8409,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>29</v>
       </c>
@@ -8395,7 +8459,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>29</v>
       </c>
@@ -8445,7 +8509,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>29</v>
       </c>
@@ -8495,7 +8559,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>29</v>
       </c>
@@ -8545,7 +8609,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>29</v>
       </c>
@@ -8595,7 +8659,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>29</v>
       </c>
@@ -8645,7 +8709,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>29</v>
       </c>
@@ -8683,11 +8747,11 @@
         <v>2</v>
       </c>
       <c r="M158" s="9">
-        <f t="shared" ref="M158:M166" si="52">J158/(I158-L158)</f>
+        <f t="shared" ref="M158:M164" si="52">J158/(I158-L158)</f>
         <v>1</v>
       </c>
       <c r="N158" s="9">
-        <f t="shared" ref="N158:N166" si="53">K158/(I158-L158)</f>
+        <f t="shared" ref="N158:N164" si="53">K158/(I158-L158)</f>
         <v>0</v>
       </c>
       <c r="O158" s="9">
@@ -8695,7 +8759,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>29</v>
       </c>
@@ -8745,7 +8809,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>29</v>
       </c>
@@ -8795,7 +8859,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>29</v>
       </c>
@@ -8845,7 +8909,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>29</v>
       </c>
@@ -8895,7 +8959,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>29</v>
       </c>
@@ -8945,7 +9009,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>29</v>
       </c>
@@ -8995,7 +9059,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>29</v>
       </c>
@@ -9014,22 +9078,22 @@
       <c r="F165" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G165" s="11" t="s">
+      <c r="G165" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H165" s="5">
         <v>18</v>
       </c>
-      <c r="I165" s="12">
+      <c r="I165" s="5">
         <v>9</v>
       </c>
-      <c r="J165" s="12">
+      <c r="J165" s="5">
         <v>9</v>
       </c>
-      <c r="K165" s="12">
-        <v>0</v>
-      </c>
-      <c r="L165" s="12">
+      <c r="K165" s="5">
+        <v>0</v>
+      </c>
+      <c r="L165" s="5">
         <v>0</v>
       </c>
       <c r="M165" s="9">
@@ -9064,22 +9128,22 @@
       <c r="F166" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G166" s="11" t="s">
+      <c r="G166" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H166" s="5">
         <v>8</v>
       </c>
-      <c r="I166" s="12">
+      <c r="I166" s="5">
         <v>4</v>
       </c>
-      <c r="J166" s="12">
+      <c r="J166" s="5">
         <v>4</v>
       </c>
-      <c r="K166" s="12">
-        <v>0</v>
-      </c>
-      <c r="L166" s="12">
+      <c r="K166" s="5">
+        <v>0</v>
+      </c>
+      <c r="L166" s="5">
         <v>0</v>
       </c>
       <c r="M166" s="9">
@@ -9114,22 +9178,22 @@
       <c r="F167" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G167" s="11" t="s">
+      <c r="G167" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H167" s="5">
         <v>1</v>
       </c>
-      <c r="I167" s="12">
-        <v>1</v>
-      </c>
-      <c r="J167" s="12">
-        <v>1</v>
-      </c>
-      <c r="K167" s="12">
-        <v>0</v>
-      </c>
-      <c r="L167" s="12">
+      <c r="I167" s="5">
+        <v>1</v>
+      </c>
+      <c r="J167" s="5">
+        <v>1</v>
+      </c>
+      <c r="K167" s="5">
+        <v>0</v>
+      </c>
+      <c r="L167" s="5">
         <v>0</v>
       </c>
       <c r="M167" s="9">
@@ -9164,22 +9228,22 @@
       <c r="F168" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G168" s="11" t="s">
+      <c r="G168" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H168" s="5">
         <v>1</v>
       </c>
-      <c r="I168" s="12">
-        <v>1</v>
-      </c>
-      <c r="J168" s="12">
-        <v>1</v>
-      </c>
-      <c r="K168" s="12">
-        <v>0</v>
-      </c>
-      <c r="L168" s="12">
+      <c r="I168" s="5">
+        <v>1</v>
+      </c>
+      <c r="J168" s="5">
+        <v>1</v>
+      </c>
+      <c r="K168" s="5">
+        <v>0</v>
+      </c>
+      <c r="L168" s="5">
         <v>0</v>
       </c>
       <c r="M168" s="9">
@@ -9214,22 +9278,22 @@
       <c r="F169" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G169" s="11" t="s">
+      <c r="G169" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H169" s="5">
         <v>1</v>
       </c>
-      <c r="I169" s="12">
-        <v>1</v>
-      </c>
-      <c r="J169" s="12">
-        <v>1</v>
-      </c>
-      <c r="K169" s="12">
-        <v>0</v>
-      </c>
-      <c r="L169" s="12">
+      <c r="I169" s="5">
+        <v>1</v>
+      </c>
+      <c r="J169" s="5">
+        <v>1</v>
+      </c>
+      <c r="K169" s="5">
+        <v>0</v>
+      </c>
+      <c r="L169" s="5">
         <v>0</v>
       </c>
       <c r="M169" s="9">
@@ -9264,22 +9328,22 @@
       <c r="F170" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G170" s="11" t="s">
+      <c r="G170" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H170" s="5">
         <v>1</v>
       </c>
-      <c r="I170" s="12">
-        <v>1</v>
-      </c>
-      <c r="J170" s="12">
-        <v>1</v>
-      </c>
-      <c r="K170" s="12">
-        <v>0</v>
-      </c>
-      <c r="L170" s="12">
+      <c r="I170" s="5">
+        <v>1</v>
+      </c>
+      <c r="J170" s="5">
+        <v>1</v>
+      </c>
+      <c r="K170" s="5">
+        <v>0</v>
+      </c>
+      <c r="L170" s="5">
         <v>0</v>
       </c>
       <c r="M170" s="9">
@@ -9320,16 +9384,16 @@
       <c r="H171" s="5">
         <v>1</v>
       </c>
-      <c r="I171" s="12">
-        <v>1</v>
-      </c>
-      <c r="J171" s="12">
-        <v>1</v>
-      </c>
-      <c r="K171" s="12">
-        <v>0</v>
-      </c>
-      <c r="L171" s="12">
+      <c r="I171" s="5">
+        <v>1</v>
+      </c>
+      <c r="J171" s="5">
+        <v>1</v>
+      </c>
+      <c r="K171" s="5">
+        <v>0</v>
+      </c>
+      <c r="L171" s="5">
         <v>0</v>
       </c>
       <c r="M171" s="9">
@@ -9364,22 +9428,22 @@
       <c r="F172" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G172" s="11" t="s">
+      <c r="G172" s="4" t="s">
         <v>79</v>
       </c>
       <c r="H172" s="5">
         <v>1</v>
       </c>
-      <c r="I172" s="12">
-        <v>1</v>
-      </c>
-      <c r="J172" s="12">
-        <v>1</v>
-      </c>
-      <c r="K172" s="12">
-        <v>0</v>
-      </c>
-      <c r="L172" s="12">
+      <c r="I172" s="5">
+        <v>1</v>
+      </c>
+      <c r="J172" s="5">
+        <v>1</v>
+      </c>
+      <c r="K172" s="5">
+        <v>0</v>
+      </c>
+      <c r="L172" s="5">
         <v>0</v>
       </c>
       <c r="M172" s="9">
@@ -9395,7 +9459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>29</v>
       </c>
@@ -9417,19 +9481,19 @@
       <c r="G173" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H173" s="12">
+      <c r="H173" s="5">
         <v>10</v>
       </c>
-      <c r="I173" s="12">
+      <c r="I173" s="5">
         <v>5</v>
       </c>
-      <c r="J173" s="12">
+      <c r="J173" s="5">
         <v>5</v>
       </c>
-      <c r="K173" s="12">
-        <v>0</v>
-      </c>
-      <c r="L173" s="12">
+      <c r="K173" s="5">
+        <v>0</v>
+      </c>
+      <c r="L173" s="5">
         <v>0</v>
       </c>
       <c r="M173" s="9">
@@ -9441,11 +9505,11 @@
         <v>0</v>
       </c>
       <c r="O173" s="9">
-        <f t="shared" ref="O173:O186" si="60">I173/H173</f>
+        <f t="shared" ref="O173:O182" si="60">I173/H173</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>29</v>
       </c>
@@ -9467,19 +9531,19 @@
       <c r="G174" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H174" s="12">
+      <c r="H174" s="5">
         <v>8</v>
       </c>
-      <c r="I174" s="12">
+      <c r="I174" s="5">
         <v>4</v>
       </c>
-      <c r="J174" s="12">
+      <c r="J174" s="5">
         <v>2</v>
       </c>
-      <c r="K174" s="12">
+      <c r="K174" s="5">
         <v>2</v>
       </c>
-      <c r="L174" s="12">
+      <c r="L174" s="5">
         <v>0</v>
       </c>
       <c r="M174" s="9">
@@ -9495,7 +9559,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>29</v>
       </c>
@@ -9517,19 +9581,19 @@
       <c r="G175" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H175" s="12">
+      <c r="H175" s="5">
         <v>4</v>
       </c>
-      <c r="I175" s="12">
+      <c r="I175" s="5">
         <v>2</v>
       </c>
-      <c r="J175" s="12">
+      <c r="J175" s="5">
         <v>2</v>
       </c>
-      <c r="K175" s="12">
-        <v>0</v>
-      </c>
-      <c r="L175" s="12">
+      <c r="K175" s="5">
+        <v>0</v>
+      </c>
+      <c r="L175" s="5">
         <v>0</v>
       </c>
       <c r="M175" s="9">
@@ -9545,7 +9609,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>29</v>
       </c>
@@ -9567,19 +9631,19 @@
       <c r="G176" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H176" s="12">
+      <c r="H176" s="5">
         <v>4</v>
       </c>
-      <c r="I176" s="12">
+      <c r="I176" s="5">
         <v>2</v>
       </c>
-      <c r="J176" s="12">
+      <c r="J176" s="5">
         <v>2</v>
       </c>
-      <c r="K176" s="12">
-        <v>0</v>
-      </c>
-      <c r="L176" s="12">
+      <c r="K176" s="5">
+        <v>0</v>
+      </c>
+      <c r="L176" s="5">
         <v>0</v>
       </c>
       <c r="M176" s="9">
@@ -9595,7 +9659,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>29</v>
       </c>
@@ -9617,19 +9681,19 @@
       <c r="G177" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H177" s="12">
+      <c r="H177" s="5">
         <v>4</v>
       </c>
-      <c r="I177" s="12">
+      <c r="I177" s="5">
         <v>2</v>
       </c>
-      <c r="J177" s="12">
+      <c r="J177" s="5">
         <v>2</v>
       </c>
-      <c r="K177" s="12">
-        <v>0</v>
-      </c>
-      <c r="L177" s="12">
+      <c r="K177" s="5">
+        <v>0</v>
+      </c>
+      <c r="L177" s="5">
         <v>0</v>
       </c>
       <c r="M177" s="9">
@@ -9645,7 +9709,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>29</v>
       </c>
@@ -9667,19 +9731,19 @@
       <c r="G178" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H178" s="12">
+      <c r="H178" s="5">
         <v>4</v>
       </c>
-      <c r="I178" s="12">
+      <c r="I178" s="5">
         <v>2</v>
       </c>
-      <c r="J178" s="12">
+      <c r="J178" s="5">
         <v>2</v>
       </c>
-      <c r="K178" s="12">
-        <v>0</v>
-      </c>
-      <c r="L178" s="12">
+      <c r="K178" s="5">
+        <v>0</v>
+      </c>
+      <c r="L178" s="5">
         <v>0</v>
       </c>
       <c r="M178" s="9">
@@ -9695,7 +9759,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>29</v>
       </c>
@@ -9717,19 +9781,19 @@
       <c r="G179" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H179" s="12">
+      <c r="H179" s="5">
         <v>4</v>
       </c>
-      <c r="I179" s="12">
+      <c r="I179" s="5">
         <v>2</v>
       </c>
-      <c r="J179" s="12">
+      <c r="J179" s="5">
         <v>2</v>
       </c>
-      <c r="K179" s="12">
-        <v>0</v>
-      </c>
-      <c r="L179" s="12">
+      <c r="K179" s="5">
+        <v>0</v>
+      </c>
+      <c r="L179" s="5">
         <v>0</v>
       </c>
       <c r="M179" s="9">
@@ -9745,7 +9809,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>29</v>
       </c>
@@ -9767,19 +9831,19 @@
       <c r="G180" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H180" s="12">
+      <c r="H180" s="5">
         <v>10</v>
       </c>
-      <c r="I180" s="12">
+      <c r="I180" s="5">
         <v>5</v>
       </c>
-      <c r="J180" s="12">
+      <c r="J180" s="5">
         <v>5</v>
       </c>
-      <c r="K180" s="12">
-        <v>0</v>
-      </c>
-      <c r="L180" s="12">
+      <c r="K180" s="5">
+        <v>0</v>
+      </c>
+      <c r="L180" s="5">
         <v>0</v>
       </c>
       <c r="M180" s="9">
@@ -9817,26 +9881,26 @@
       <c r="G181" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H181" s="12">
+      <c r="H181" s="5">
         <v>10</v>
       </c>
-      <c r="I181" s="12">
+      <c r="I181" s="5">
         <v>5</v>
       </c>
-      <c r="J181" s="12">
+      <c r="J181" s="5">
         <v>5</v>
       </c>
-      <c r="K181" s="12">
-        <v>0</v>
-      </c>
-      <c r="L181" s="12">
-        <v>0</v>
-      </c>
-      <c r="M181" s="13">
+      <c r="K181" s="5">
+        <v>0</v>
+      </c>
+      <c r="L181" s="5">
+        <v>0</v>
+      </c>
+      <c r="M181" s="11">
         <f t="shared" si="58"/>
         <v>1</v>
       </c>
-      <c r="N181" s="13">
+      <c r="N181" s="11">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
@@ -9867,30 +9931,30 @@
       <c r="G182" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H182" s="12">
+      <c r="H182" s="5">
         <v>4</v>
       </c>
-      <c r="I182" s="12">
+      <c r="I182" s="5">
         <v>2</v>
       </c>
-      <c r="J182" s="12">
+      <c r="J182" s="5">
         <v>2</v>
       </c>
-      <c r="K182" s="12">
-        <v>0</v>
-      </c>
-      <c r="L182" s="12">
-        <v>0</v>
-      </c>
-      <c r="M182" s="13">
+      <c r="K182" s="5">
+        <v>0</v>
+      </c>
+      <c r="L182" s="5">
+        <v>0</v>
+      </c>
+      <c r="M182" s="11">
         <f t="shared" si="58"/>
         <v>1</v>
       </c>
-      <c r="N182" s="13">
+      <c r="N182" s="11">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="O182" s="13">
+      <c r="O182" s="11">
         <f t="shared" si="60"/>
         <v>0.5</v>
       </c>
@@ -9917,31 +9981,31 @@
       <c r="G183" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H183" s="12">
+      <c r="H183" s="5">
         <v>16</v>
       </c>
-      <c r="I183" s="12">
+      <c r="I183" s="5">
         <v>8</v>
       </c>
-      <c r="J183" s="12">
+      <c r="J183" s="5">
         <v>7</v>
       </c>
-      <c r="K183" s="12">
-        <v>0</v>
-      </c>
-      <c r="L183" s="12">
-        <v>1</v>
-      </c>
-      <c r="M183" s="13">
-        <f t="shared" ref="M183:M188" si="61">J183/(I183-L183)</f>
-        <v>1</v>
-      </c>
-      <c r="N183" s="13">
-        <f t="shared" ref="N183:N188" si="62">K183/(I183-L183)</f>
-        <v>0</v>
-      </c>
-      <c r="O183" s="13">
-        <f t="shared" ref="O183:O188" si="63">I183/H183</f>
+      <c r="K183" s="5">
+        <v>0</v>
+      </c>
+      <c r="L183" s="5">
+        <v>1</v>
+      </c>
+      <c r="M183" s="11">
+        <f t="shared" ref="M183:M203" si="61">J183/(I183-L183)</f>
+        <v>1</v>
+      </c>
+      <c r="N183" s="11">
+        <f t="shared" ref="N183:N189" si="62">K183/(I183-L183)</f>
+        <v>0</v>
+      </c>
+      <c r="O183" s="11">
+        <f t="shared" ref="O183:O190" si="63">I183/H183</f>
         <v>0.5</v>
       </c>
     </row>
@@ -9967,30 +10031,30 @@
       <c r="G184" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H184" s="12">
+      <c r="H184" s="5">
         <v>16</v>
       </c>
-      <c r="I184" s="12">
+      <c r="I184" s="5">
         <v>8</v>
       </c>
-      <c r="J184" s="12">
+      <c r="J184" s="5">
         <v>7</v>
       </c>
-      <c r="K184" s="12">
-        <v>0</v>
-      </c>
-      <c r="L184" s="12">
-        <v>1</v>
-      </c>
-      <c r="M184" s="13">
+      <c r="K184" s="5">
+        <v>0</v>
+      </c>
+      <c r="L184" s="5">
+        <v>1</v>
+      </c>
+      <c r="M184" s="11">
         <f t="shared" si="61"/>
         <v>1</v>
       </c>
-      <c r="N184" s="13">
+      <c r="N184" s="11">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="O184" s="13">
+      <c r="O184" s="11">
         <f t="shared" si="63"/>
         <v>0.5</v>
       </c>
@@ -10017,30 +10081,30 @@
       <c r="G185" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H185" s="12">
+      <c r="H185" s="5">
         <v>16</v>
       </c>
-      <c r="I185" s="12">
+      <c r="I185" s="5">
         <v>8</v>
       </c>
-      <c r="J185" s="12">
+      <c r="J185" s="5">
         <v>7</v>
       </c>
-      <c r="K185" s="12">
-        <v>0</v>
-      </c>
-      <c r="L185" s="12">
-        <v>1</v>
-      </c>
-      <c r="M185" s="13">
+      <c r="K185" s="5">
+        <v>0</v>
+      </c>
+      <c r="L185" s="5">
+        <v>1</v>
+      </c>
+      <c r="M185" s="11">
         <f t="shared" si="61"/>
         <v>1</v>
       </c>
-      <c r="N185" s="13">
+      <c r="N185" s="11">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="O185" s="13">
+      <c r="O185" s="11">
         <f t="shared" si="63"/>
         <v>0.5</v>
       </c>
@@ -10067,30 +10131,30 @@
       <c r="G186" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H186" s="12">
+      <c r="H186" s="5">
         <v>16</v>
       </c>
-      <c r="I186" s="12">
+      <c r="I186" s="5">
         <v>8</v>
       </c>
-      <c r="J186" s="12">
+      <c r="J186" s="5">
         <v>8</v>
       </c>
-      <c r="K186" s="12">
-        <v>0</v>
-      </c>
-      <c r="L186" s="12">
-        <v>0</v>
-      </c>
-      <c r="M186" s="13">
+      <c r="K186" s="5">
+        <v>0</v>
+      </c>
+      <c r="L186" s="5">
+        <v>0</v>
+      </c>
+      <c r="M186" s="11">
         <f t="shared" si="61"/>
         <v>1</v>
       </c>
-      <c r="N186" s="13">
+      <c r="N186" s="11">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="O186" s="13">
+      <c r="O186" s="11">
         <f t="shared" si="63"/>
         <v>0.5</v>
       </c>
@@ -10117,30 +10181,30 @@
       <c r="G187" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H187" s="12">
+      <c r="H187" s="5">
         <v>16</v>
       </c>
-      <c r="I187" s="12">
+      <c r="I187" s="5">
         <v>8</v>
       </c>
-      <c r="J187" s="12">
+      <c r="J187" s="5">
         <v>8</v>
       </c>
-      <c r="K187" s="12">
-        <v>0</v>
-      </c>
-      <c r="L187" s="12">
-        <v>0</v>
-      </c>
-      <c r="M187" s="13">
+      <c r="K187" s="5">
+        <v>0</v>
+      </c>
+      <c r="L187" s="5">
+        <v>0</v>
+      </c>
+      <c r="M187" s="11">
         <f t="shared" si="61"/>
         <v>1</v>
       </c>
-      <c r="N187" s="13">
+      <c r="N187" s="11">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="O187" s="13">
+      <c r="O187" s="11">
         <f t="shared" si="63"/>
         <v>0.5</v>
       </c>
@@ -10167,47 +10231,783 @@
       <c r="G188" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H188" s="12">
+      <c r="H188" s="5">
         <v>5</v>
       </c>
-      <c r="I188" s="12">
+      <c r="I188" s="5">
         <v>3</v>
       </c>
-      <c r="J188" s="12">
+      <c r="J188" s="5">
         <v>3</v>
       </c>
-      <c r="K188" s="12">
-        <v>0</v>
-      </c>
-      <c r="L188" s="12">
-        <v>0</v>
-      </c>
-      <c r="M188" s="13">
+      <c r="K188" s="5">
+        <v>0</v>
+      </c>
+      <c r="L188" s="5">
+        <v>0</v>
+      </c>
+      <c r="M188" s="11">
         <f t="shared" si="61"/>
         <v>1</v>
       </c>
-      <c r="N188" s="13">
+      <c r="N188" s="11">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="O188" s="13">
+      <c r="O188" s="11">
         <f t="shared" si="63"/>
         <v>0.6</v>
       </c>
     </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B189" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D189" s="8">
+        <v>12</v>
+      </c>
+      <c r="E189" s="14">
+        <v>3</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H189" s="15">
+        <v>39</v>
+      </c>
+      <c r="I189" s="15">
+        <v>20</v>
+      </c>
+      <c r="J189" s="15">
+        <v>20</v>
+      </c>
+      <c r="K189" s="15">
+        <v>0</v>
+      </c>
+      <c r="L189" s="15">
+        <v>0</v>
+      </c>
+      <c r="M189" s="11">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N189" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="O189" s="11">
+        <f t="shared" si="63"/>
+        <v>0.51282051282051277</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B190" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D190" s="8">
+        <v>12</v>
+      </c>
+      <c r="E190" s="14">
+        <v>3</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H190" s="15">
+        <v>7</v>
+      </c>
+      <c r="I190" s="15">
+        <v>3</v>
+      </c>
+      <c r="J190" s="15">
+        <v>0</v>
+      </c>
+      <c r="K190" s="15">
+        <v>0</v>
+      </c>
+      <c r="L190" s="15">
+        <v>3</v>
+      </c>
+      <c r="M190" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N190" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O190" s="11">
+        <f t="shared" si="63"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B191" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D191" s="8">
+        <v>12</v>
+      </c>
+      <c r="E191" s="14">
+        <v>3</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H191" s="15">
+        <v>14</v>
+      </c>
+      <c r="I191" s="15">
+        <v>6</v>
+      </c>
+      <c r="J191" s="15">
+        <v>6</v>
+      </c>
+      <c r="K191" s="15">
+        <v>0</v>
+      </c>
+      <c r="L191" s="15">
+        <v>0</v>
+      </c>
+      <c r="M191" s="11">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N191" s="11">
+        <f t="shared" ref="N191:N203" si="64">K191/(I191-L191)</f>
+        <v>0</v>
+      </c>
+      <c r="O191" s="11">
+        <f t="shared" ref="O191:O203" si="65">I191/H191</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A192" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B192" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D192" s="8">
+        <v>12</v>
+      </c>
+      <c r="E192" s="14">
+        <v>3</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H192" s="15">
+        <v>14</v>
+      </c>
+      <c r="I192" s="15">
+        <v>6</v>
+      </c>
+      <c r="J192" s="15">
+        <v>4</v>
+      </c>
+      <c r="K192" s="15">
+        <v>2</v>
+      </c>
+      <c r="L192" s="15">
+        <v>0</v>
+      </c>
+      <c r="M192" s="11">
+        <f t="shared" si="61"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N192" s="11">
+        <f t="shared" si="64"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O192" s="11">
+        <f t="shared" si="65"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A193" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B193" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D193" s="8">
+        <v>12</v>
+      </c>
+      <c r="E193" s="14">
+        <v>3</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H193" s="15">
+        <v>14</v>
+      </c>
+      <c r="I193" s="15">
+        <v>6</v>
+      </c>
+      <c r="J193" s="15">
+        <v>6</v>
+      </c>
+      <c r="K193" s="15">
+        <v>0</v>
+      </c>
+      <c r="L193" s="15">
+        <v>0</v>
+      </c>
+      <c r="M193" s="11">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N193" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O193" s="16">
+        <f t="shared" si="65"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B194" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D194" s="8">
+        <v>12</v>
+      </c>
+      <c r="E194" s="14">
+        <v>3</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H194" s="15">
+        <v>14</v>
+      </c>
+      <c r="I194" s="15">
+        <v>6</v>
+      </c>
+      <c r="J194" s="15">
+        <v>6</v>
+      </c>
+      <c r="K194" s="15">
+        <v>0</v>
+      </c>
+      <c r="L194" s="15">
+        <v>0</v>
+      </c>
+      <c r="M194" s="11">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N194" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O194" s="16">
+        <f t="shared" si="65"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A195" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B195" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D195" s="8">
+        <v>12</v>
+      </c>
+      <c r="E195" s="14">
+        <v>3</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H195" s="15">
+        <v>14</v>
+      </c>
+      <c r="I195" s="15">
+        <v>6</v>
+      </c>
+      <c r="J195" s="15">
+        <v>3</v>
+      </c>
+      <c r="K195" s="15">
+        <v>1</v>
+      </c>
+      <c r="L195" s="15">
+        <v>2</v>
+      </c>
+      <c r="M195" s="11">
+        <f t="shared" si="61"/>
+        <v>0.75</v>
+      </c>
+      <c r="N195" s="11">
+        <f t="shared" si="64"/>
+        <v>0.25</v>
+      </c>
+      <c r="O195" s="16">
+        <f t="shared" si="65"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B196" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D196" s="8">
+        <v>12</v>
+      </c>
+      <c r="E196" s="14">
+        <v>3</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H196" s="15">
+        <v>5</v>
+      </c>
+      <c r="I196" s="15">
+        <v>2</v>
+      </c>
+      <c r="J196" s="15">
+        <v>2</v>
+      </c>
+      <c r="K196" s="15">
+        <v>0</v>
+      </c>
+      <c r="L196" s="15">
+        <v>0</v>
+      </c>
+      <c r="M196" s="11">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N196" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O196" s="16">
+        <f t="shared" si="65"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A197" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B197" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D197" s="8">
+        <v>12</v>
+      </c>
+      <c r="E197" s="14">
+        <v>4</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H197" s="15">
+        <v>18</v>
+      </c>
+      <c r="I197" s="15">
+        <v>10</v>
+      </c>
+      <c r="J197" s="15">
+        <v>3</v>
+      </c>
+      <c r="K197" s="15">
+        <v>5</v>
+      </c>
+      <c r="L197" s="15">
+        <v>2</v>
+      </c>
+      <c r="M197" s="11">
+        <f t="shared" si="61"/>
+        <v>0.375</v>
+      </c>
+      <c r="N197" s="11">
+        <f t="shared" si="64"/>
+        <v>0.625</v>
+      </c>
+      <c r="O197" s="16">
+        <f t="shared" si="65"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B198" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D198" s="8">
+        <v>12</v>
+      </c>
+      <c r="E198" s="14">
+        <v>4</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H198" s="15">
+        <v>21</v>
+      </c>
+      <c r="I198" s="15">
+        <v>12</v>
+      </c>
+      <c r="J198" s="15">
+        <v>10</v>
+      </c>
+      <c r="K198" s="15">
+        <v>0</v>
+      </c>
+      <c r="L198" s="15">
+        <v>2</v>
+      </c>
+      <c r="M198" s="11">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N198" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O198" s="16">
+        <f t="shared" si="65"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A199" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B199" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D199" s="8">
+        <v>12</v>
+      </c>
+      <c r="E199" s="14">
+        <v>4</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H199" s="15">
+        <v>21</v>
+      </c>
+      <c r="I199" s="15">
+        <v>12</v>
+      </c>
+      <c r="J199" s="15">
+        <v>9</v>
+      </c>
+      <c r="K199" s="15">
+        <v>1</v>
+      </c>
+      <c r="L199" s="15">
+        <v>2</v>
+      </c>
+      <c r="M199" s="11">
+        <f t="shared" si="61"/>
+        <v>0.9</v>
+      </c>
+      <c r="N199" s="11">
+        <f t="shared" si="64"/>
+        <v>0.1</v>
+      </c>
+      <c r="O199" s="16">
+        <f t="shared" si="65"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B200" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D200" s="8">
+        <v>12</v>
+      </c>
+      <c r="E200" s="14">
+        <v>4</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H200" s="15">
+        <v>21</v>
+      </c>
+      <c r="I200" s="15">
+        <v>12</v>
+      </c>
+      <c r="J200" s="15">
+        <v>10</v>
+      </c>
+      <c r="K200" s="15">
+        <v>0</v>
+      </c>
+      <c r="L200" s="15">
+        <v>2</v>
+      </c>
+      <c r="M200" s="11">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N200" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O200" s="16">
+        <f t="shared" si="65"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A201" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B201" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D201" s="8">
+        <v>12</v>
+      </c>
+      <c r="E201" s="14">
+        <v>4</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H201" s="15">
+        <v>21</v>
+      </c>
+      <c r="I201" s="15">
+        <v>12</v>
+      </c>
+      <c r="J201" s="15">
+        <v>12</v>
+      </c>
+      <c r="K201" s="15">
+        <v>0</v>
+      </c>
+      <c r="L201" s="15">
+        <v>0</v>
+      </c>
+      <c r="M201" s="11">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N201" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O201" s="16">
+        <f t="shared" si="65"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A202" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B202" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D202" s="8">
+        <v>12</v>
+      </c>
+      <c r="E202" s="14">
+        <v>4</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H202" s="15">
+        <v>21</v>
+      </c>
+      <c r="I202" s="15">
+        <v>12</v>
+      </c>
+      <c r="J202" s="15">
+        <v>11</v>
+      </c>
+      <c r="K202" s="15">
+        <v>0</v>
+      </c>
+      <c r="L202" s="15">
+        <v>1</v>
+      </c>
+      <c r="M202" s="11">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N202" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O202" s="16">
+        <f t="shared" si="65"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A203" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B203" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D203" s="8">
+        <v>12</v>
+      </c>
+      <c r="E203" s="14">
+        <v>4</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H203" s="15">
+        <v>8</v>
+      </c>
+      <c r="I203" s="15">
+        <v>5</v>
+      </c>
+      <c r="J203" s="15">
+        <v>5</v>
+      </c>
+      <c r="K203" s="15">
+        <v>0</v>
+      </c>
+      <c r="L203" s="15">
+        <v>0</v>
+      </c>
+      <c r="M203" s="11">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="N203" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O203" s="16">
+        <f t="shared" si="65"/>
+        <v>0.625</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O188" xr:uid="{E7272780-F6E8-4A36-B6CD-CC205CD51139}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Dec"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10215,10 +11015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C53DFA-81F7-47CF-9345-E8C8EF0158AC}">
-  <dimension ref="A1:L732"/>
+  <dimension ref="A1:L862"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="E109" workbookViewId="0">
+      <selection activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10268,34 +11068,34 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="8">
-        <v>2025</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="19">
         <v>6</v>
       </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="19">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="19">
         <v>0</v>
       </c>
     </row>
@@ -10327,7 +11127,7 @@
       <c r="I3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="19">
         <v>0</v>
       </c>
     </row>
@@ -10455,7 +11255,7 @@
       <c r="I7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="19">
         <v>0</v>
       </c>
     </row>
@@ -10551,7 +11351,7 @@
       <c r="I10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="19">
         <v>0</v>
       </c>
     </row>
@@ -10647,7 +11447,7 @@
       <c r="I13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="19">
         <v>0</v>
       </c>
     </row>
@@ -10999,7 +11799,7 @@
       <c r="I24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="19">
         <v>0</v>
       </c>
     </row>
@@ -11127,7 +11927,7 @@
       <c r="I28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="19">
         <v>0</v>
       </c>
     </row>
@@ -11255,7 +12055,7 @@
       <c r="I32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="19">
         <v>0</v>
       </c>
     </row>
@@ -11319,7 +12119,7 @@
       <c r="I34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="19">
         <v>0</v>
       </c>
     </row>
@@ -11383,7 +12183,7 @@
       <c r="I36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="19">
         <v>0</v>
       </c>
     </row>
@@ -11447,7 +12247,7 @@
       <c r="I38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="19">
         <v>0</v>
       </c>
     </row>
@@ -11575,7 +12375,7 @@
       <c r="I42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="19">
         <v>0</v>
       </c>
     </row>
@@ -11703,7 +12503,7 @@
       <c r="I46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="19">
         <v>0</v>
       </c>
     </row>
@@ -11735,7 +12535,7 @@
       <c r="I47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J47" s="8">
+      <c r="J47" s="19">
         <v>0</v>
       </c>
     </row>
@@ -11767,7 +12567,7 @@
       <c r="I48" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="19">
         <v>0</v>
       </c>
     </row>
@@ -11863,7 +12663,7 @@
       <c r="I51" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="19">
         <v>0</v>
       </c>
     </row>
@@ -11895,7 +12695,7 @@
       <c r="I52" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="19">
         <v>0</v>
       </c>
     </row>
@@ -11927,7 +12727,7 @@
       <c r="I53" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="19">
         <v>0</v>
       </c>
     </row>
@@ -12023,7 +12823,7 @@
       <c r="I56" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J56" s="19">
         <v>0</v>
       </c>
     </row>
@@ -12599,7 +13399,7 @@
       <c r="I74" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J74" s="19">
         <v>0</v>
       </c>
     </row>
@@ -12663,7 +13463,7 @@
       <c r="I76" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J76" s="8">
+      <c r="J76" s="19">
         <v>0</v>
       </c>
     </row>
@@ -12983,7 +13783,7 @@
       <c r="I86" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J86" s="8">
+      <c r="J86" s="19">
         <v>0</v>
       </c>
     </row>
@@ -15511,7 +16311,7 @@
       <c r="I165" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J165" s="8">
+      <c r="J165" s="19">
         <v>0</v>
       </c>
     </row>
@@ -15639,7 +16439,7 @@
       <c r="I169" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J169" s="8">
+      <c r="J169" s="19">
         <v>0</v>
       </c>
     </row>
@@ -15703,7 +16503,7 @@
       <c r="I171" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J171" s="8">
+      <c r="J171" s="19">
         <v>0</v>
       </c>
     </row>
@@ -15767,7 +16567,7 @@
       <c r="I173" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J173" s="8">
+      <c r="J173" s="19">
         <v>0</v>
       </c>
     </row>
@@ -15799,7 +16599,7 @@
       <c r="I174" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J174" s="8">
+      <c r="J174" s="19">
         <v>0</v>
       </c>
     </row>
@@ -15831,7 +16631,7 @@
       <c r="I175" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J175" s="8">
+      <c r="J175" s="19">
         <v>0</v>
       </c>
     </row>
@@ -15863,7 +16663,7 @@
       <c r="I176" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J176" s="8">
+      <c r="J176" s="19">
         <v>0</v>
       </c>
     </row>
@@ -15895,7 +16695,7 @@
       <c r="I177" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J177" s="8">
+      <c r="J177" s="19">
         <v>0</v>
       </c>
     </row>
@@ -15927,7 +16727,7 @@
       <c r="I178" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J178" s="8">
+      <c r="J178" s="19">
         <v>0</v>
       </c>
     </row>
@@ -15959,7 +16759,7 @@
       <c r="I179" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J179" s="8">
+      <c r="J179" s="19">
         <v>0</v>
       </c>
     </row>
@@ -16023,7 +16823,7 @@
       <c r="I181" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J181" s="8">
+      <c r="J181" s="19">
         <v>0</v>
       </c>
     </row>
@@ -16119,7 +16919,7 @@
       <c r="I184" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J184" s="8">
+      <c r="J184" s="19">
         <v>0</v>
       </c>
     </row>
@@ -16407,7 +17207,7 @@
       <c r="I193" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J193" s="8">
+      <c r="J193" s="19">
         <v>0</v>
       </c>
     </row>
@@ -16695,7 +17495,7 @@
       <c r="I202" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J202" s="8">
+      <c r="J202" s="19">
         <v>0</v>
       </c>
     </row>
@@ -16727,7 +17527,7 @@
       <c r="I203" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J203" s="8">
+      <c r="J203" s="19">
         <v>0</v>
       </c>
     </row>
@@ -16759,7 +17559,7 @@
       <c r="I204" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J204" s="8">
+      <c r="J204" s="19">
         <v>0</v>
       </c>
     </row>
@@ -17879,7 +18679,7 @@
       <c r="I239" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J239" s="8">
+      <c r="J239" s="19">
         <v>0</v>
       </c>
     </row>
@@ -18519,7 +19319,7 @@
       <c r="I259" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J259" s="8">
+      <c r="J259" s="19">
         <v>0</v>
       </c>
     </row>
@@ -18903,7 +19703,7 @@
       <c r="I271" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J271" s="8">
+      <c r="J271" s="19">
         <v>0</v>
       </c>
     </row>
@@ -18935,7 +19735,7 @@
       <c r="I272" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J272" s="8">
+      <c r="J272" s="19">
         <v>0</v>
       </c>
     </row>
@@ -19255,7 +20055,7 @@
       <c r="I282" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J282" s="8">
+      <c r="J282" s="19">
         <v>0</v>
       </c>
     </row>
@@ -19319,7 +20119,7 @@
       <c r="I284" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J284" s="8">
+      <c r="J284" s="19">
         <v>0</v>
       </c>
     </row>
@@ -20375,7 +21175,7 @@
       <c r="I317" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J317" s="8">
+      <c r="J317" s="19">
         <v>0</v>
       </c>
     </row>
@@ -21015,7 +21815,7 @@
       <c r="I337" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J337" s="8">
+      <c r="J337" s="19">
         <v>0</v>
       </c>
     </row>
@@ -21047,7 +21847,7 @@
       <c r="I338" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J338" s="8">
+      <c r="J338" s="19">
         <v>0</v>
       </c>
     </row>
@@ -21719,7 +22519,7 @@
       <c r="I359" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J359" s="8">
+      <c r="J359" s="19">
         <v>0</v>
       </c>
     </row>
@@ -22167,7 +22967,7 @@
       <c r="I373" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J373" s="8">
+      <c r="J373" s="19">
         <v>0</v>
       </c>
     </row>
@@ -22263,7 +23063,7 @@
       <c r="I376" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J376" s="8">
+      <c r="J376" s="19">
         <v>0</v>
       </c>
     </row>
@@ -22391,7 +23191,7 @@
       <c r="I380" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J380" s="8">
+      <c r="J380" s="19">
         <v>0</v>
       </c>
     </row>
@@ -22423,7 +23223,7 @@
       <c r="I381" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J381" s="8">
+      <c r="J381" s="19">
         <v>0</v>
       </c>
     </row>
@@ -22583,7 +23383,7 @@
       <c r="I386" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J386" s="8">
+      <c r="J386" s="19">
         <v>0</v>
       </c>
     </row>
@@ -23639,7 +24439,7 @@
       <c r="I419" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J419" s="8">
+      <c r="J419" s="19">
         <v>0</v>
       </c>
     </row>
@@ -23991,7 +24791,7 @@
       <c r="I430" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J430" s="8">
+      <c r="J430" s="19">
         <v>0</v>
       </c>
     </row>
@@ -24055,7 +24855,7 @@
       <c r="I432" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J432" s="8">
+      <c r="J432" s="19">
         <v>0</v>
       </c>
     </row>
@@ -24087,7 +24887,7 @@
       <c r="I433" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J433" s="8">
+      <c r="J433" s="19">
         <v>0</v>
       </c>
     </row>
@@ -24119,7 +24919,7 @@
       <c r="I434" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J434" s="8">
+      <c r="J434" s="19">
         <v>0</v>
       </c>
     </row>
@@ -24151,7 +24951,7 @@
       <c r="I435" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J435" s="8">
+      <c r="J435" s="19">
         <v>0</v>
       </c>
     </row>
@@ -25015,7 +25815,7 @@
       <c r="I462" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J462" s="8">
+      <c r="J462" s="19">
         <v>0</v>
       </c>
     </row>
@@ -26360,7 +27160,7 @@
       <c r="I504" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J504" s="8">
+      <c r="J504" s="19">
         <v>0</v>
       </c>
     </row>
@@ -27544,7 +28344,7 @@
       <c r="I541" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J541" s="8">
+      <c r="J541" s="19">
         <v>0</v>
       </c>
     </row>
@@ -27608,7 +28408,7 @@
       <c r="I543" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J543" s="8">
+      <c r="J543" s="19">
         <v>0</v>
       </c>
     </row>
@@ -27672,7 +28472,7 @@
       <c r="I545" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J545" s="8">
+      <c r="J545" s="19">
         <v>0</v>
       </c>
     </row>
@@ -28312,7 +29112,7 @@
       <c r="I565" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J565" s="8">
+      <c r="J565" s="19">
         <v>0</v>
       </c>
     </row>
@@ -28472,7 +29272,7 @@
       <c r="I570" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J570" s="8">
+      <c r="J570" s="19">
         <v>0</v>
       </c>
     </row>
@@ -28536,7 +29336,7 @@
       <c r="I572" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J572" s="8">
+      <c r="J572" s="19">
         <v>0</v>
       </c>
     </row>
@@ -29752,7 +30552,7 @@
       <c r="I610" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J610" s="8">
+      <c r="J610" s="19">
         <v>0</v>
       </c>
     </row>
@@ -30700,7 +31500,7 @@
       <c r="E640" s="8">
         <v>1</v>
       </c>
-      <c r="F640" s="14" t="s">
+      <c r="F640" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G640" s="7" t="s">
@@ -30709,7 +31509,7 @@
       <c r="H640" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I640" s="11" t="s">
+      <c r="I640" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J640" s="8">
@@ -30732,7 +31532,7 @@
       <c r="E641" s="8">
         <v>1</v>
       </c>
-      <c r="F641" s="14" t="s">
+      <c r="F641" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G641" s="7" t="s">
@@ -30741,7 +31541,7 @@
       <c r="H641" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I641" s="11" t="s">
+      <c r="I641" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J641" s="8">
@@ -30764,7 +31564,7 @@
       <c r="E642" s="8">
         <v>1</v>
       </c>
-      <c r="F642" s="14" t="s">
+      <c r="F642" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G642" s="7" t="s">
@@ -30773,7 +31573,7 @@
       <c r="H642" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I642" s="11" t="s">
+      <c r="I642" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J642" s="8">
@@ -30796,7 +31596,7 @@
       <c r="E643" s="8">
         <v>1</v>
       </c>
-      <c r="F643" s="14" t="s">
+      <c r="F643" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G643" s="7" t="s">
@@ -30805,7 +31605,7 @@
       <c r="H643" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I643" s="11" t="s">
+      <c r="I643" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J643" s="8">
@@ -30828,7 +31628,7 @@
       <c r="E644" s="8">
         <v>1</v>
       </c>
-      <c r="F644" s="14" t="s">
+      <c r="F644" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G644" s="7" t="s">
@@ -30837,7 +31637,7 @@
       <c r="H644" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I644" s="11" t="s">
+      <c r="I644" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J644" s="8">
@@ -30860,7 +31660,7 @@
       <c r="E645" s="8">
         <v>1</v>
       </c>
-      <c r="F645" s="14" t="s">
+      <c r="F645" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G645" s="7" t="s">
@@ -30869,7 +31669,7 @@
       <c r="H645" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I645" s="11" t="s">
+      <c r="I645" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J645" s="8">
@@ -30892,7 +31692,7 @@
       <c r="E646" s="8">
         <v>1</v>
       </c>
-      <c r="F646" s="14" t="s">
+      <c r="F646" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G646" s="7" t="s">
@@ -30901,7 +31701,7 @@
       <c r="H646" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I646" s="11" t="s">
+      <c r="I646" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J646" s="8">
@@ -30924,7 +31724,7 @@
       <c r="E647" s="8">
         <v>1</v>
       </c>
-      <c r="F647" s="14" t="s">
+      <c r="F647" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G647" s="7" t="s">
@@ -30933,7 +31733,7 @@
       <c r="H647" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I647" s="11" t="s">
+      <c r="I647" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J647" s="8">
@@ -30956,7 +31756,7 @@
       <c r="E648" s="8">
         <v>1</v>
       </c>
-      <c r="F648" s="14" t="s">
+      <c r="F648" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G648" s="7" t="s">
@@ -30965,7 +31765,7 @@
       <c r="H648" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I648" s="11" t="s">
+      <c r="I648" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J648" s="8">
@@ -30988,7 +31788,7 @@
       <c r="E649" s="8">
         <v>1</v>
       </c>
-      <c r="F649" s="14" t="s">
+      <c r="F649" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G649" s="7" t="s">
@@ -31020,7 +31820,7 @@
       <c r="E650" s="8">
         <v>1</v>
       </c>
-      <c r="F650" s="14" t="s">
+      <c r="F650" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G650" s="7" t="s">
@@ -31052,7 +31852,7 @@
       <c r="E651" s="8">
         <v>1</v>
       </c>
-      <c r="F651" s="14" t="s">
+      <c r="F651" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G651" s="7" t="s">
@@ -31084,7 +31884,7 @@
       <c r="E652" s="8">
         <v>1</v>
       </c>
-      <c r="F652" s="14" t="s">
+      <c r="F652" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G652" s="7" t="s">
@@ -31116,7 +31916,7 @@
       <c r="E653" s="8">
         <v>1</v>
       </c>
-      <c r="F653" s="14" t="s">
+      <c r="F653" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G653" s="7" t="s">
@@ -31148,7 +31948,7 @@
       <c r="E654" s="8">
         <v>1</v>
       </c>
-      <c r="F654" s="14" t="s">
+      <c r="F654" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G654" s="7" t="s">
@@ -31160,7 +31960,7 @@
       <c r="I654" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J654" s="8">
+      <c r="J654" s="19">
         <v>0</v>
       </c>
     </row>
@@ -31180,7 +31980,7 @@
       <c r="E655" s="8">
         <v>1</v>
       </c>
-      <c r="F655" s="14" t="s">
+      <c r="F655" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G655" s="7" t="s">
@@ -31192,7 +31992,7 @@
       <c r="I655" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J655" s="8">
+      <c r="J655" s="19">
         <v>0</v>
       </c>
     </row>
@@ -31212,7 +32012,7 @@
       <c r="E656" s="8">
         <v>1</v>
       </c>
-      <c r="F656" s="14" t="s">
+      <c r="F656" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G656" s="7" t="s">
@@ -31244,7 +32044,7 @@
       <c r="E657" s="8">
         <v>1</v>
       </c>
-      <c r="F657" s="14" t="s">
+      <c r="F657" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G657" s="7" t="s">
@@ -31756,7 +32556,7 @@
       <c r="E673" s="8">
         <v>2</v>
       </c>
-      <c r="F673" s="14" t="s">
+      <c r="F673" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G673" s="7" t="s">
@@ -31765,7 +32565,7 @@
       <c r="H673" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I673" s="11" t="s">
+      <c r="I673" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J673" s="8">
@@ -31788,7 +32588,7 @@
       <c r="E674" s="8">
         <v>2</v>
       </c>
-      <c r="F674" s="14" t="s">
+      <c r="F674" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G674" s="7" t="s">
@@ -31797,7 +32597,7 @@
       <c r="H674" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I674" s="11" t="s">
+      <c r="I674" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J674" s="8">
@@ -31820,7 +32620,7 @@
       <c r="E675" s="8">
         <v>2</v>
       </c>
-      <c r="F675" s="14" t="s">
+      <c r="F675" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G675" s="7" t="s">
@@ -31829,7 +32629,7 @@
       <c r="H675" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I675" s="11" t="s">
+      <c r="I675" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J675" s="8">
@@ -31852,7 +32652,7 @@
       <c r="E676" s="8">
         <v>2</v>
       </c>
-      <c r="F676" s="14" t="s">
+      <c r="F676" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G676" s="7" t="s">
@@ -31861,7 +32661,7 @@
       <c r="H676" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I676" s="11" t="s">
+      <c r="I676" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J676" s="8">
@@ -31884,7 +32684,7 @@
       <c r="E677" s="8">
         <v>2</v>
       </c>
-      <c r="F677" s="14" t="s">
+      <c r="F677" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G677" s="7" t="s">
@@ -31893,7 +32693,7 @@
       <c r="H677" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I677" s="11" t="s">
+      <c r="I677" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J677" s="8">
@@ -31916,7 +32716,7 @@
       <c r="E678" s="8">
         <v>2</v>
       </c>
-      <c r="F678" s="14" t="s">
+      <c r="F678" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G678" s="7" t="s">
@@ -31925,7 +32725,7 @@
       <c r="H678" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I678" s="11" t="s">
+      <c r="I678" s="4" t="s">
         <v>83</v>
       </c>
       <c r="J678" s="8">
@@ -31948,7 +32748,7 @@
       <c r="E679" s="8">
         <v>2</v>
       </c>
-      <c r="F679" s="14" t="s">
+      <c r="F679" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G679" s="7" t="s">
@@ -31957,7 +32757,7 @@
       <c r="H679" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I679" s="11" t="s">
+      <c r="I679" s="4" t="s">
         <v>84</v>
       </c>
       <c r="J679" s="8">
@@ -31989,7 +32789,7 @@
       <c r="H680" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I680" s="11" t="s">
+      <c r="I680" s="4" t="s">
         <v>85</v>
       </c>
       <c r="J680" s="8">
@@ -32053,7 +32853,7 @@
       <c r="H682" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I682" s="11" t="s">
+      <c r="I682" s="4" t="s">
         <v>79</v>
       </c>
       <c r="J682" s="8">
@@ -32076,7 +32876,7 @@
       <c r="E683" s="8">
         <v>2</v>
       </c>
-      <c r="F683" s="14" t="s">
+      <c r="F683" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G683" s="7" t="s">
@@ -32108,7 +32908,7 @@
       <c r="E684" s="8">
         <v>2</v>
       </c>
-      <c r="F684" s="14" t="s">
+      <c r="F684" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G684" s="7" t="s">
@@ -32140,7 +32940,7 @@
       <c r="E685" s="8">
         <v>2</v>
       </c>
-      <c r="F685" s="14" t="s">
+      <c r="F685" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G685" s="7" t="s">
@@ -32172,7 +32972,7 @@
       <c r="E686" s="8">
         <v>2</v>
       </c>
-      <c r="F686" s="14" t="s">
+      <c r="F686" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G686" s="7" t="s">
@@ -32204,7 +33004,7 @@
       <c r="E687" s="8">
         <v>2</v>
       </c>
-      <c r="F687" s="14" t="s">
+      <c r="F687" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G687" s="7" t="s">
@@ -32236,7 +33036,7 @@
       <c r="E688" s="8">
         <v>2</v>
       </c>
-      <c r="F688" s="14" t="s">
+      <c r="F688" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G688" s="7" t="s">
@@ -32268,7 +33068,7 @@
       <c r="E689" s="8">
         <v>2</v>
       </c>
-      <c r="F689" s="14" t="s">
+      <c r="F689" s="12" t="s">
         <v>67</v>
       </c>
       <c r="G689" s="7" t="s">
@@ -33657,6 +34457,4166 @@
         <v>57</v>
       </c>
       <c r="J732" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A733" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B733" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C733" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D733" s="8">
+        <v>12</v>
+      </c>
+      <c r="E733" s="8">
+        <v>3</v>
+      </c>
+      <c r="F733" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G733" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H733" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I733" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J733" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A734" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B734" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C734" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D734" s="8">
+        <v>12</v>
+      </c>
+      <c r="E734" s="8">
+        <v>3</v>
+      </c>
+      <c r="F734" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G734" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H734" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I734" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J734" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A735" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B735" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C735" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D735" s="8">
+        <v>12</v>
+      </c>
+      <c r="E735" s="8">
+        <v>3</v>
+      </c>
+      <c r="F735" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G735" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H735" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I735" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J735" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A736" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B736" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C736" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D736" s="8">
+        <v>12</v>
+      </c>
+      <c r="E736" s="8">
+        <v>3</v>
+      </c>
+      <c r="F736" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G736" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H736" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I736" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J736" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A737" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B737" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C737" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D737" s="8">
+        <v>12</v>
+      </c>
+      <c r="E737" s="8">
+        <v>3</v>
+      </c>
+      <c r="F737" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G737" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H737" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I737" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J737" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A738" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B738" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C738" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D738" s="8">
+        <v>12</v>
+      </c>
+      <c r="E738" s="8">
+        <v>3</v>
+      </c>
+      <c r="F738" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G738" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H738" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I738" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J738" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A739" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B739" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C739" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D739" s="8">
+        <v>12</v>
+      </c>
+      <c r="E739" s="8">
+        <v>3</v>
+      </c>
+      <c r="F739" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G739" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H739" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I739" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J739" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A740" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B740" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C740" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D740" s="8">
+        <v>12</v>
+      </c>
+      <c r="E740" s="8">
+        <v>3</v>
+      </c>
+      <c r="F740" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G740" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H740" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I740" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J740" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A741" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B741" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C741" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D741" s="8">
+        <v>12</v>
+      </c>
+      <c r="E741" s="8">
+        <v>3</v>
+      </c>
+      <c r="F741" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G741" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H741" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I741" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J741" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A742" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B742" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C742" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D742" s="8">
+        <v>12</v>
+      </c>
+      <c r="E742" s="8">
+        <v>3</v>
+      </c>
+      <c r="F742" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G742" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H742" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I742" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J742" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A743" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B743" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C743" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D743" s="8">
+        <v>12</v>
+      </c>
+      <c r="E743" s="8">
+        <v>3</v>
+      </c>
+      <c r="F743" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G743" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H743" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I743" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J743" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A744" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B744" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C744" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D744" s="8">
+        <v>12</v>
+      </c>
+      <c r="E744" s="8">
+        <v>3</v>
+      </c>
+      <c r="F744" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G744" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H744" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I744" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J744" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A745" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B745" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C745" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D745" s="8">
+        <v>12</v>
+      </c>
+      <c r="E745" s="8">
+        <v>3</v>
+      </c>
+      <c r="F745" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G745" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H745" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I745" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J745" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A746" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B746" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C746" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D746" s="8">
+        <v>12</v>
+      </c>
+      <c r="E746" s="8">
+        <v>3</v>
+      </c>
+      <c r="F746" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G746" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H746" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I746" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J746" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A747" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B747" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C747" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D747" s="8">
+        <v>12</v>
+      </c>
+      <c r="E747" s="8">
+        <v>3</v>
+      </c>
+      <c r="F747" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G747" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H747" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I747" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J747" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A748" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B748" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C748" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D748" s="8">
+        <v>12</v>
+      </c>
+      <c r="E748" s="8">
+        <v>3</v>
+      </c>
+      <c r="F748" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G748" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H748" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I748" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J748" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A749" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B749" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C749" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D749" s="8">
+        <v>12</v>
+      </c>
+      <c r="E749" s="8">
+        <v>3</v>
+      </c>
+      <c r="F749" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G749" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H749" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I749" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J749" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A750" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B750" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C750" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D750" s="8">
+        <v>12</v>
+      </c>
+      <c r="E750" s="8">
+        <v>3</v>
+      </c>
+      <c r="F750" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G750" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H750" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I750" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J750" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A751" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B751" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C751" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D751" s="8">
+        <v>12</v>
+      </c>
+      <c r="E751" s="8">
+        <v>3</v>
+      </c>
+      <c r="F751" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G751" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H751" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I751" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J751" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A752" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B752" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C752" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D752" s="8">
+        <v>12</v>
+      </c>
+      <c r="E752" s="8">
+        <v>3</v>
+      </c>
+      <c r="F752" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G752" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H752" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I752" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J752" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A753" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B753" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C753" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D753" s="8">
+        <v>12</v>
+      </c>
+      <c r="E753" s="8">
+        <v>3</v>
+      </c>
+      <c r="F753" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G753" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H753" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I753" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J753" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A754" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B754" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C754" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D754" s="8">
+        <v>12</v>
+      </c>
+      <c r="E754" s="8">
+        <v>3</v>
+      </c>
+      <c r="F754" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G754" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H754" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I754" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J754" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A755" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B755" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C755" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D755" s="8">
+        <v>12</v>
+      </c>
+      <c r="E755" s="8">
+        <v>3</v>
+      </c>
+      <c r="F755" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G755" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H755" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I755" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J755" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A756" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B756" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C756" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D756" s="8">
+        <v>12</v>
+      </c>
+      <c r="E756" s="8">
+        <v>3</v>
+      </c>
+      <c r="F756" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G756" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H756" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I756" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J756" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A757" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B757" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C757" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D757" s="8">
+        <v>12</v>
+      </c>
+      <c r="E757" s="8">
+        <v>3</v>
+      </c>
+      <c r="F757" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G757" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H757" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I757" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J757" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A758" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B758" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C758" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D758" s="8">
+        <v>12</v>
+      </c>
+      <c r="E758" s="8">
+        <v>3</v>
+      </c>
+      <c r="F758" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G758" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H758" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I758" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J758" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A759" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B759" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C759" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D759" s="8">
+        <v>12</v>
+      </c>
+      <c r="E759" s="8">
+        <v>3</v>
+      </c>
+      <c r="F759" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G759" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H759" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I759" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J759" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A760" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B760" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C760" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D760" s="8">
+        <v>12</v>
+      </c>
+      <c r="E760" s="8">
+        <v>3</v>
+      </c>
+      <c r="F760" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G760" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H760" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I760" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J760" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A761" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B761" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C761" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D761" s="8">
+        <v>12</v>
+      </c>
+      <c r="E761" s="8">
+        <v>3</v>
+      </c>
+      <c r="F761" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G761" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H761" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I761" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J761" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A762" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B762" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C762" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D762" s="8">
+        <v>12</v>
+      </c>
+      <c r="E762" s="8">
+        <v>3</v>
+      </c>
+      <c r="F762" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G762" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H762" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I762" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J762" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A763" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B763" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C763" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D763" s="8">
+        <v>12</v>
+      </c>
+      <c r="E763" s="8">
+        <v>3</v>
+      </c>
+      <c r="F763" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G763" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H763" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I763" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J763" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A764" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B764" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C764" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D764" s="8">
+        <v>12</v>
+      </c>
+      <c r="E764" s="8">
+        <v>3</v>
+      </c>
+      <c r="F764" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G764" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H764" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I764" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J764" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A765" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B765" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C765" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D765" s="8">
+        <v>12</v>
+      </c>
+      <c r="E765" s="8">
+        <v>3</v>
+      </c>
+      <c r="F765" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G765" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H765" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I765" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J765" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A766" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B766" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C766" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D766" s="8">
+        <v>12</v>
+      </c>
+      <c r="E766" s="8">
+        <v>3</v>
+      </c>
+      <c r="F766" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G766" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H766" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I766" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J766" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A767" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B767" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C767" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D767" s="8">
+        <v>12</v>
+      </c>
+      <c r="E767" s="8">
+        <v>3</v>
+      </c>
+      <c r="F767" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G767" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H767" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I767" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J767" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A768" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B768" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C768" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D768" s="8">
+        <v>12</v>
+      </c>
+      <c r="E768" s="8">
+        <v>3</v>
+      </c>
+      <c r="F768" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G768" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H768" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I768" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J768" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A769" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B769" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C769" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D769" s="8">
+        <v>12</v>
+      </c>
+      <c r="E769" s="8">
+        <v>3</v>
+      </c>
+      <c r="F769" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G769" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H769" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I769" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J769" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A770" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B770" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C770" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D770" s="8">
+        <v>12</v>
+      </c>
+      <c r="E770" s="8">
+        <v>3</v>
+      </c>
+      <c r="F770" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G770" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H770" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I770" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J770" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A771" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B771" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C771" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D771" s="8">
+        <v>12</v>
+      </c>
+      <c r="E771" s="8">
+        <v>3</v>
+      </c>
+      <c r="F771" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G771" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H771" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I771" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J771" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A772" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B772" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C772" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D772" s="8">
+        <v>12</v>
+      </c>
+      <c r="E772" s="8">
+        <v>3</v>
+      </c>
+      <c r="F772" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G772" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H772" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I772" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J772" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A773" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B773" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C773" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D773" s="8">
+        <v>12</v>
+      </c>
+      <c r="E773" s="8">
+        <v>3</v>
+      </c>
+      <c r="F773" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G773" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H773" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I773" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J773" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A774" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B774" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C774" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D774" s="8">
+        <v>12</v>
+      </c>
+      <c r="E774" s="8">
+        <v>3</v>
+      </c>
+      <c r="F774" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G774" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H774" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I774" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J774" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A775" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B775" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C775" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D775" s="8">
+        <v>12</v>
+      </c>
+      <c r="E775" s="8">
+        <v>3</v>
+      </c>
+      <c r="F775" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G775" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H775" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I775" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J775" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A776" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B776" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C776" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D776" s="8">
+        <v>12</v>
+      </c>
+      <c r="E776" s="8">
+        <v>3</v>
+      </c>
+      <c r="F776" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G776" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H776" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I776" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J776" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A777" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B777" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C777" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D777" s="8">
+        <v>12</v>
+      </c>
+      <c r="E777" s="8">
+        <v>3</v>
+      </c>
+      <c r="F777" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G777" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H777" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I777" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J777" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A778" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B778" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C778" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D778" s="8">
+        <v>12</v>
+      </c>
+      <c r="E778" s="8">
+        <v>3</v>
+      </c>
+      <c r="F778" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G778" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H778" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I778" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J778" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A779" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B779" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C779" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D779" s="8">
+        <v>12</v>
+      </c>
+      <c r="E779" s="8">
+        <v>3</v>
+      </c>
+      <c r="F779" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G779" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H779" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I779" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J779" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A780" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B780" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C780" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D780" s="8">
+        <v>12</v>
+      </c>
+      <c r="E780" s="8">
+        <v>3</v>
+      </c>
+      <c r="F780" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G780" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H780" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I780" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J780" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A781" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B781" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C781" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D781" s="8">
+        <v>12</v>
+      </c>
+      <c r="E781" s="8">
+        <v>3</v>
+      </c>
+      <c r="F781" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G781" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H781" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I781" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J781" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="782" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A782" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B782" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C782" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D782" s="8">
+        <v>12</v>
+      </c>
+      <c r="E782" s="8">
+        <v>3</v>
+      </c>
+      <c r="F782" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G782" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H782" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I782" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J782" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A783" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B783" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C783" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D783" s="8">
+        <v>12</v>
+      </c>
+      <c r="E783" s="8">
+        <v>3</v>
+      </c>
+      <c r="F783" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G783" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H783" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I783" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J783" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A784" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B784" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C784" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D784" s="8">
+        <v>12</v>
+      </c>
+      <c r="E784" s="8">
+        <v>3</v>
+      </c>
+      <c r="F784" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G784" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H784" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I784" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J784" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A785" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B785" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C785" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D785" s="8">
+        <v>12</v>
+      </c>
+      <c r="E785" s="8">
+        <v>3</v>
+      </c>
+      <c r="F785" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G785" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H785" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I785" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J785" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A786" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B786" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C786" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D786" s="8">
+        <v>12</v>
+      </c>
+      <c r="E786" s="8">
+        <v>3</v>
+      </c>
+      <c r="F786" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G786" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H786" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I786" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J786" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A787" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B787" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C787" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D787" s="8">
+        <v>12</v>
+      </c>
+      <c r="E787" s="8">
+        <v>3</v>
+      </c>
+      <c r="F787" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G787" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H787" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I787" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J787" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A788" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B788" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C788" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D788" s="8">
+        <v>12</v>
+      </c>
+      <c r="E788" s="8">
+        <v>4</v>
+      </c>
+      <c r="F788" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G788" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H788" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I788" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J788" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A789" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B789" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C789" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D789" s="8">
+        <v>12</v>
+      </c>
+      <c r="E789" s="8">
+        <v>4</v>
+      </c>
+      <c r="F789" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G789" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H789" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I789" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J789" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A790" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B790" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C790" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D790" s="8">
+        <v>12</v>
+      </c>
+      <c r="E790" s="8">
+        <v>4</v>
+      </c>
+      <c r="F790" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G790" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H790" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I790" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J790" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A791" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B791" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C791" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D791" s="8">
+        <v>12</v>
+      </c>
+      <c r="E791" s="8">
+        <v>4</v>
+      </c>
+      <c r="F791" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G791" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H791" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I791" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J791" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A792" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B792" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C792" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D792" s="8">
+        <v>12</v>
+      </c>
+      <c r="E792" s="8">
+        <v>4</v>
+      </c>
+      <c r="F792" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G792" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H792" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I792" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J792" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A793" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B793" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C793" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D793" s="8">
+        <v>12</v>
+      </c>
+      <c r="E793" s="8">
+        <v>4</v>
+      </c>
+      <c r="F793" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G793" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H793" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I793" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J793" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A794" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B794" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C794" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D794" s="8">
+        <v>12</v>
+      </c>
+      <c r="E794" s="8">
+        <v>4</v>
+      </c>
+      <c r="F794" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G794" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H794" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I794" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J794" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A795" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B795" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C795" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D795" s="8">
+        <v>12</v>
+      </c>
+      <c r="E795" s="8">
+        <v>4</v>
+      </c>
+      <c r="F795" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G795" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H795" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I795" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J795" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A796" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B796" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C796" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D796" s="8">
+        <v>12</v>
+      </c>
+      <c r="E796" s="8">
+        <v>4</v>
+      </c>
+      <c r="F796" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G796" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H796" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I796" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J796" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A797" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B797" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C797" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D797" s="8">
+        <v>12</v>
+      </c>
+      <c r="E797" s="8">
+        <v>4</v>
+      </c>
+      <c r="F797" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G797" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H797" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I797" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J797" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A798" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B798" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C798" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D798" s="8">
+        <v>12</v>
+      </c>
+      <c r="E798" s="8">
+        <v>4</v>
+      </c>
+      <c r="F798" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G798" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H798" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I798" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J798" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A799" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B799" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C799" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D799" s="8">
+        <v>12</v>
+      </c>
+      <c r="E799" s="8">
+        <v>4</v>
+      </c>
+      <c r="F799" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G799" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H799" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I799" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J799" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A800" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B800" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C800" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D800" s="8">
+        <v>12</v>
+      </c>
+      <c r="E800" s="8">
+        <v>4</v>
+      </c>
+      <c r="F800" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G800" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H800" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I800" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J800" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A801" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B801" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C801" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D801" s="8">
+        <v>12</v>
+      </c>
+      <c r="E801" s="8">
+        <v>4</v>
+      </c>
+      <c r="F801" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G801" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H801" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I801" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J801" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A802" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B802" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C802" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D802" s="8">
+        <v>12</v>
+      </c>
+      <c r="E802" s="8">
+        <v>4</v>
+      </c>
+      <c r="F802" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G802" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H802" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I802" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J802" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A803" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B803" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C803" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D803" s="8">
+        <v>12</v>
+      </c>
+      <c r="E803" s="8">
+        <v>4</v>
+      </c>
+      <c r="F803" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G803" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H803" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I803" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J803" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A804" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B804" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C804" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D804" s="8">
+        <v>12</v>
+      </c>
+      <c r="E804" s="8">
+        <v>4</v>
+      </c>
+      <c r="F804" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G804" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H804" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I804" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J804" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A805" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B805" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C805" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D805" s="8">
+        <v>12</v>
+      </c>
+      <c r="E805" s="8">
+        <v>4</v>
+      </c>
+      <c r="F805" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G805" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H805" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I805" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J805" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A806" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B806" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C806" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D806" s="8">
+        <v>12</v>
+      </c>
+      <c r="E806" s="8">
+        <v>4</v>
+      </c>
+      <c r="F806" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G806" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H806" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I806" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J806" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A807" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B807" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C807" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D807" s="8">
+        <v>12</v>
+      </c>
+      <c r="E807" s="8">
+        <v>4</v>
+      </c>
+      <c r="F807" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G807" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H807" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I807" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J807" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A808" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B808" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C808" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D808" s="8">
+        <v>12</v>
+      </c>
+      <c r="E808" s="8">
+        <v>4</v>
+      </c>
+      <c r="F808" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G808" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H808" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I808" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J808" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A809" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B809" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C809" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D809" s="8">
+        <v>12</v>
+      </c>
+      <c r="E809" s="8">
+        <v>4</v>
+      </c>
+      <c r="F809" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G809" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H809" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I809" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J809" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A810" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B810" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C810" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D810" s="8">
+        <v>12</v>
+      </c>
+      <c r="E810" s="8">
+        <v>4</v>
+      </c>
+      <c r="F810" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G810" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H810" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I810" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J810" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A811" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B811" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C811" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D811" s="8">
+        <v>12</v>
+      </c>
+      <c r="E811" s="8">
+        <v>4</v>
+      </c>
+      <c r="F811" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G811" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H811" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I811" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J811" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A812" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B812" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C812" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D812" s="8">
+        <v>12</v>
+      </c>
+      <c r="E812" s="8">
+        <v>4</v>
+      </c>
+      <c r="F812" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G812" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H812" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I812" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J812" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="813" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A813" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B813" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C813" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D813" s="8">
+        <v>12</v>
+      </c>
+      <c r="E813" s="8">
+        <v>4</v>
+      </c>
+      <c r="F813" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G813" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H813" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I813" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J813" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A814" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B814" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C814" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D814" s="8">
+        <v>12</v>
+      </c>
+      <c r="E814" s="8">
+        <v>4</v>
+      </c>
+      <c r="F814" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G814" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H814" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I814" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J814" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A815" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B815" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C815" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D815" s="8">
+        <v>12</v>
+      </c>
+      <c r="E815" s="8">
+        <v>4</v>
+      </c>
+      <c r="F815" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G815" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H815" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I815" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J815" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A816" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B816" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C816" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D816" s="8">
+        <v>12</v>
+      </c>
+      <c r="E816" s="8">
+        <v>4</v>
+      </c>
+      <c r="F816" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G816" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H816" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I816" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J816" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A817" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B817" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C817" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D817" s="8">
+        <v>12</v>
+      </c>
+      <c r="E817" s="8">
+        <v>4</v>
+      </c>
+      <c r="F817" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G817" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H817" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I817" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J817" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A818" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B818" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C818" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D818" s="8">
+        <v>12</v>
+      </c>
+      <c r="E818" s="8">
+        <v>4</v>
+      </c>
+      <c r="F818" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G818" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H818" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I818" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J818" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A819" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B819" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C819" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D819" s="8">
+        <v>12</v>
+      </c>
+      <c r="E819" s="8">
+        <v>4</v>
+      </c>
+      <c r="F819" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G819" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H819" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I819" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J819" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A820" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B820" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C820" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D820" s="8">
+        <v>12</v>
+      </c>
+      <c r="E820" s="8">
+        <v>4</v>
+      </c>
+      <c r="F820" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G820" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H820" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I820" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J820" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A821" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B821" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C821" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D821" s="8">
+        <v>12</v>
+      </c>
+      <c r="E821" s="8">
+        <v>4</v>
+      </c>
+      <c r="F821" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G821" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H821" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I821" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J821" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A822" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B822" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C822" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D822" s="8">
+        <v>12</v>
+      </c>
+      <c r="E822" s="8">
+        <v>4</v>
+      </c>
+      <c r="F822" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G822" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H822" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I822" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J822" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A823" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B823" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C823" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D823" s="8">
+        <v>12</v>
+      </c>
+      <c r="E823" s="8">
+        <v>4</v>
+      </c>
+      <c r="F823" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G823" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H823" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I823" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J823" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A824" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B824" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C824" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D824" s="8">
+        <v>12</v>
+      </c>
+      <c r="E824" s="8">
+        <v>4</v>
+      </c>
+      <c r="F824" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G824" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H824" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I824" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J824" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="825" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A825" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B825" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C825" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D825" s="8">
+        <v>12</v>
+      </c>
+      <c r="E825" s="8">
+        <v>4</v>
+      </c>
+      <c r="F825" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G825" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H825" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I825" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J825" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A826" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B826" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C826" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D826" s="8">
+        <v>12</v>
+      </c>
+      <c r="E826" s="8">
+        <v>4</v>
+      </c>
+      <c r="F826" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G826" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H826" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I826" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J826" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="827" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A827" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B827" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C827" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D827" s="8">
+        <v>12</v>
+      </c>
+      <c r="E827" s="8">
+        <v>4</v>
+      </c>
+      <c r="F827" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G827" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H827" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I827" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J827" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A828" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B828" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C828" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D828" s="8">
+        <v>12</v>
+      </c>
+      <c r="E828" s="8">
+        <v>4</v>
+      </c>
+      <c r="F828" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G828" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H828" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I828" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J828" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A829" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B829" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C829" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D829" s="8">
+        <v>12</v>
+      </c>
+      <c r="E829" s="8">
+        <v>4</v>
+      </c>
+      <c r="F829" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G829" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H829" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I829" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J829" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A830" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B830" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C830" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D830" s="8">
+        <v>12</v>
+      </c>
+      <c r="E830" s="8">
+        <v>4</v>
+      </c>
+      <c r="F830" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G830" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H830" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I830" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J830" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A831" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B831" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C831" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D831" s="8">
+        <v>12</v>
+      </c>
+      <c r="E831" s="8">
+        <v>4</v>
+      </c>
+      <c r="F831" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G831" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H831" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I831" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J831" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A832" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B832" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C832" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D832" s="8">
+        <v>12</v>
+      </c>
+      <c r="E832" s="8">
+        <v>4</v>
+      </c>
+      <c r="F832" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G832" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H832" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I832" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J832" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A833" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B833" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C833" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D833" s="8">
+        <v>12</v>
+      </c>
+      <c r="E833" s="8">
+        <v>4</v>
+      </c>
+      <c r="F833" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G833" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H833" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I833" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J833" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A834" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B834" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C834" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D834" s="8">
+        <v>12</v>
+      </c>
+      <c r="E834" s="8">
+        <v>4</v>
+      </c>
+      <c r="F834" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G834" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H834" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I834" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J834" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A835" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B835" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C835" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D835" s="8">
+        <v>12</v>
+      </c>
+      <c r="E835" s="8">
+        <v>4</v>
+      </c>
+      <c r="F835" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G835" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H835" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I835" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J835" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A836" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B836" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C836" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D836" s="8">
+        <v>12</v>
+      </c>
+      <c r="E836" s="8">
+        <v>4</v>
+      </c>
+      <c r="F836" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G836" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H836" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I836" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J836" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A837" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B837" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C837" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D837" s="8">
+        <v>12</v>
+      </c>
+      <c r="E837" s="8">
+        <v>4</v>
+      </c>
+      <c r="F837" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G837" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H837" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I837" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J837" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A838" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B838" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C838" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D838" s="8">
+        <v>12</v>
+      </c>
+      <c r="E838" s="8">
+        <v>4</v>
+      </c>
+      <c r="F838" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G838" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H838" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I838" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J838" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A839" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B839" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C839" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D839" s="8">
+        <v>12</v>
+      </c>
+      <c r="E839" s="8">
+        <v>4</v>
+      </c>
+      <c r="F839" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G839" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H839" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I839" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J839" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A840" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B840" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C840" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D840" s="8">
+        <v>12</v>
+      </c>
+      <c r="E840" s="8">
+        <v>4</v>
+      </c>
+      <c r="F840" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G840" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H840" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I840" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J840" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A841" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B841" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C841" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D841" s="8">
+        <v>12</v>
+      </c>
+      <c r="E841" s="8">
+        <v>4</v>
+      </c>
+      <c r="F841" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G841" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H841" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I841" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J841" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A842" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B842" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C842" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D842" s="8">
+        <v>12</v>
+      </c>
+      <c r="E842" s="8">
+        <v>4</v>
+      </c>
+      <c r="F842" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G842" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H842" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I842" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J842" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A843" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B843" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C843" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D843" s="8">
+        <v>12</v>
+      </c>
+      <c r="E843" s="8">
+        <v>4</v>
+      </c>
+      <c r="F843" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G843" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H843" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I843" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J843" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A844" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B844" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C844" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D844" s="8">
+        <v>12</v>
+      </c>
+      <c r="E844" s="8">
+        <v>4</v>
+      </c>
+      <c r="F844" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G844" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H844" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I844" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J844" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A845" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B845" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C845" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D845" s="8">
+        <v>12</v>
+      </c>
+      <c r="E845" s="8">
+        <v>4</v>
+      </c>
+      <c r="F845" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G845" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H845" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I845" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J845" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A846" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B846" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C846" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D846" s="8">
+        <v>12</v>
+      </c>
+      <c r="E846" s="8">
+        <v>4</v>
+      </c>
+      <c r="F846" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G846" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H846" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I846" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J846" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A847" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B847" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C847" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D847" s="8">
+        <v>12</v>
+      </c>
+      <c r="E847" s="8">
+        <v>4</v>
+      </c>
+      <c r="F847" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G847" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H847" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I847" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J847" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A848" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B848" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C848" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D848" s="8">
+        <v>12</v>
+      </c>
+      <c r="E848" s="8">
+        <v>4</v>
+      </c>
+      <c r="F848" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G848" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H848" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I848" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J848" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A849" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B849" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C849" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D849" s="8">
+        <v>12</v>
+      </c>
+      <c r="E849" s="8">
+        <v>4</v>
+      </c>
+      <c r="F849" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G849" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H849" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I849" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J849" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A850" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B850" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C850" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D850" s="8">
+        <v>12</v>
+      </c>
+      <c r="E850" s="8">
+        <v>4</v>
+      </c>
+      <c r="F850" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G850" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H850" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I850" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J850" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A851" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B851" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C851" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D851" s="8">
+        <v>12</v>
+      </c>
+      <c r="E851" s="8">
+        <v>4</v>
+      </c>
+      <c r="F851" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G851" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H851" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I851" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J851" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A852" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B852" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C852" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D852" s="8">
+        <v>12</v>
+      </c>
+      <c r="E852" s="8">
+        <v>4</v>
+      </c>
+      <c r="F852" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G852" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H852" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I852" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J852" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A853" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B853" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C853" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D853" s="8">
+        <v>12</v>
+      </c>
+      <c r="E853" s="8">
+        <v>4</v>
+      </c>
+      <c r="F853" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G853" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H853" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I853" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J853" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A854" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B854" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C854" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D854" s="8">
+        <v>12</v>
+      </c>
+      <c r="E854" s="8">
+        <v>4</v>
+      </c>
+      <c r="F854" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G854" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H854" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I854" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J854" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="855" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A855" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B855" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C855" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D855" s="8">
+        <v>12</v>
+      </c>
+      <c r="E855" s="8">
+        <v>4</v>
+      </c>
+      <c r="F855" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G855" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H855" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I855" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J855" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A856" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B856" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C856" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D856" s="8">
+        <v>12</v>
+      </c>
+      <c r="E856" s="8">
+        <v>4</v>
+      </c>
+      <c r="F856" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G856" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H856" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I856" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J856" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A857" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B857" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C857" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D857" s="8">
+        <v>12</v>
+      </c>
+      <c r="E857" s="8">
+        <v>4</v>
+      </c>
+      <c r="F857" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G857" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H857" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I857" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J857" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A858" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B858" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C858" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D858" s="8">
+        <v>12</v>
+      </c>
+      <c r="E858" s="8">
+        <v>4</v>
+      </c>
+      <c r="F858" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G858" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H858" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I858" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J858" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A859" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B859" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C859" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D859" s="8">
+        <v>12</v>
+      </c>
+      <c r="E859" s="8">
+        <v>4</v>
+      </c>
+      <c r="F859" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G859" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H859" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I859" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J859" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A860" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B860" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C860" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D860" s="8">
+        <v>12</v>
+      </c>
+      <c r="E860" s="8">
+        <v>4</v>
+      </c>
+      <c r="F860" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G860" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H860" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I860" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J860" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A861" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B861" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C861" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D861" s="8">
+        <v>12</v>
+      </c>
+      <c r="E861" s="8">
+        <v>4</v>
+      </c>
+      <c r="F861" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G861" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H861" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I861" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J861" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A862" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B862" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C862" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D862" s="8">
+        <v>12</v>
+      </c>
+      <c r="E862" s="8">
+        <v>4</v>
+      </c>
+      <c r="F862" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G862" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H862" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I862" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J862" s="8">
         <v>1</v>
       </c>
     </row>
